--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -387,23 +387,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -411,7 +412,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -419,30 +420,30 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -450,20 +451,28 @@
         <v>2.3E-3</v>
       </c>
       <c r="C4">
+        <f>ROUND(32768*B4, 0)</f>
+        <v>75</v>
+      </c>
+      <c r="D4">
         <v>0.2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <f>ROUND(32768*D4, 0)</f>
+        <v>6554</v>
+      </c>
+      <c r="F4">
         <v>50</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>0.5</v>
       </c>
-      <c r="F4">
-        <f>ROUND((D4+D4*E4) * $B$1/($B$2*C4*B4),0)</f>
+      <c r="H4">
+        <f>ROUND((F4+F4*G4) * $B$1/($B$2*D4*B4),0)</f>
         <v>742029</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -471,20 +480,28 @@
         <v>2.3E-3</v>
       </c>
       <c r="C5">
+        <f t="shared" ref="C5:E7" si="0">ROUND(32768*B5, 0)</f>
+        <v>75</v>
+      </c>
+      <c r="D5">
         <v>0.2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>6554</v>
+      </c>
+      <c r="F5">
         <v>50</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>0.5</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F7" si="0">ROUND((D5+D5*E5) * $B$1/($B$2*C5*B5),0)</f>
+      <c r="H5">
+        <f t="shared" ref="H5:H7" si="1">ROUND((F5+F5*G5) * $B$1/($B$2*D5*B5),0)</f>
         <v>742029</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -492,20 +509,28 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D6">
         <v>0.17</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5571</v>
+      </c>
+      <c r="F6">
         <v>50</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>0.5</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
+      <c r="H6">
+        <f t="shared" si="1"/>
         <v>1254902</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -513,21 +538,30 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D7">
         <v>0.17</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5571</v>
+      </c>
+      <c r="F7">
         <v>50</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>0.5</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
+      <c r="H7">
+        <f t="shared" si="1"/>
         <v>1254902</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2100D21-452E-7843-9F72-D42E24BD4C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="14385"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="28760" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -60,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +118,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -143,7 +170,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -177,6 +204,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -211,9 +239,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,25 +415,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -412,7 +441,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -420,7 +449,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -443,36 +472,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2.3E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="C4">
         <f>ROUND(32768*B4, 0)</f>
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="E4">
         <f>ROUND(32768*D4, 0)</f>
-        <v>6554</v>
+        <v>1966</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1">
         <v>0.5</v>
       </c>
       <c r="H4">
         <f>ROUND((F4+F4*G4) * $B$1/($B$2*D4*B4),0)</f>
-        <v>742029</v>
+        <v>2370370</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -501,7 +530,7 @@
         <v>742029</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -530,7 +559,7 @@
         <v>1254902</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -566,24 +595,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2100D21-452E-7843-9F72-D42E24BD4C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E419CA87-4147-794B-B428-A9EF63C7087C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="28760" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -535,18 +535,18 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>1.6000000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D6">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>5571</v>
+        <v>5898</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -556,7 +556,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>1254902</v>
+        <v>824477</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E419CA87-4147-794B-B428-A9EF63C7087C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FED85A-C235-FF41-BBE2-809C609B5EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="28760" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -500,6 +500,9 @@
         <f>ROUND((F4+F4*G4) * $B$1/($B$2*D4*B4),0)</f>
         <v>2370370</v>
       </c>
+      <c r="I4">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -520,14 +523,14 @@
         <v>6554</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1">
         <v>0.5</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H7" si="1">ROUND((F5+F5*G5) * $B$1/($B$2*D5*B5),0)</f>
-        <v>742029</v>
+        <v>371014</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -557,6 +560,9 @@
       <c r="H6">
         <f t="shared" si="1"/>
         <v>824477</v>
+      </c>
+      <c r="I6">
+        <v>0.87</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FED85A-C235-FF41-BBE2-809C609B5EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECB99AD-605A-264B-B0D0-3238BFCC6168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="28760" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,10 +80,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +427,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -570,18 +578,18 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1.6000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>295</v>
       </c>
       <c r="D7">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>5571</v>
+        <v>1311</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -589,9 +597,8 @@
       <c r="G7" s="1">
         <v>0.5</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>1254902</v>
+      <c r="H7" s="2">
+        <v>1625397</v>
       </c>
     </row>
   </sheetData>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECB99AD-605A-264B-B0D0-3238BFCC6168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA14B3BE-7E62-684C-9977-FE7646672B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="28760" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,17 +80,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,10 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,18 +570,18 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>8.9999999999999993E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>295</v>
+        <v>174</v>
       </c>
       <c r="D7">
-        <v>0.04</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1311</v>
+        <v>1114</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -597,8 +589,9 @@
       <c r="G7" s="1">
         <v>0.5</v>
       </c>
-      <c r="H7" s="2">
-        <v>1625397</v>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1894192</v>
       </c>
     </row>
   </sheetData>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA14B3BE-7E62-684C-9977-FE7646672B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0627B202-FA3D-B04C-B52D-FEE124373629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="28760" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0627B202-FA3D-B04C-B52D-FEE124373629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="28760" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28755" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Mode</t>
   </si>
@@ -74,13 +68,34 @@
   </si>
   <si>
     <t>Sample Rate</t>
+  </si>
+  <si>
+    <t>32-bit integral</t>
+  </si>
+  <si>
+    <t>16-bit integral</t>
+  </si>
+  <si>
+    <t>p gain</t>
+  </si>
+  <si>
+    <t>I scale bits</t>
+  </si>
+  <si>
+    <t>max integral product bits</t>
+  </si>
+  <si>
+    <t>p scale bits</t>
+  </si>
+  <si>
+    <t>new 32 bit integral</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,9 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,9 +148,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,7 +188,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -204,7 +222,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -239,10 +256,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,25 +431,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E16" sqref="E16:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -441,7 +459,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -449,7 +467,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -471,154 +489,382 @@
       <c r="I3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="C4">
-        <f>ROUND(32768*B4, 0)</f>
+      <c r="C5">
+        <f>ROUND(32768*B5, 0)</f>
         <v>39</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>0.06</v>
       </c>
-      <c r="E4">
-        <f>ROUND(32768*D4, 0)</f>
+      <c r="E5">
+        <f>ROUND(32768*D5, 0)</f>
         <v>1966</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>25</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="1">
         <v>0.5</v>
       </c>
-      <c r="H4">
-        <f>ROUND((F4+F4*G4) * $B$1/($B$2*D4*B4),0)</f>
+      <c r="H5">
+        <f>ROUND((F5+F5*G5) * $B$1/($B$2*D5*B5),0)</f>
         <v>2370370</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>0.87</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>2.3E-3</v>
       </c>
-      <c r="C5">
-        <f t="shared" ref="C5:E7" si="0">ROUND(32768*B5, 0)</f>
+      <c r="C6">
+        <f t="shared" ref="C6:E8" si="0">ROUND(32768*B6, 0)</f>
         <v>75</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>0.2</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>6554</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>25</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
         <v>0.5</v>
       </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H7" si="1">ROUND((F5+F5*G5) * $B$1/($B$2*D5*B5),0)</f>
+      <c r="H6">
+        <f t="shared" ref="H6:H8" si="1">ROUND((F6+F6*G6) * $B$1/($B$2*D6*B6),0)</f>
         <v>371014</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>2.3E-3</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>0.18</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>5898</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>50</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G7" s="1">
         <v>0.5</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>824477</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>0.87</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>5.3E-3</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>174</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>1114</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>50</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
         <v>0.5</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <f t="shared" si="1"/>
         <v>1894192</v>
       </c>
     </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1.4E-3</v>
+      </c>
+      <c r="C11">
+        <f>ROUND(32768*B11, 0)</f>
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E11">
+        <f>ROUND(32768*D11, 0)</f>
+        <v>1475</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <f>ROUND((F11+F11*G11) * $B$1/($B$2*D11*B11),0)</f>
+        <v>2708995</v>
+      </c>
+      <c r="I11">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="C16">
+        <f>ROUND(POWER(2,$C$14)*B16, 0)</f>
+        <v>302</v>
+      </c>
+      <c r="D16">
+        <v>0.06</v>
+      </c>
+      <c r="E16">
+        <f>ROUND(POWER(2,$E$14)*D16, 0)</f>
+        <v>1966</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <f>ROUND(((F16*(1+G16)) * $B$1/$B$2)/B16, 0)</f>
+        <v>2370370</v>
+      </c>
+      <c r="I16">
+        <v>0.87</v>
+      </c>
+      <c r="J16">
+        <f>LOG(H16*C16,2)</f>
+        <v>29.41508558106467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2.3E-3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C19" si="2">ROUND(POWER(2,$C$14)*B17, 0)</f>
+        <v>9647</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E19" si="3">ROUND(POWER(2,$E$14)*D17, 0)</f>
+        <v>6554</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H19" si="4">ROUND(((F17*(1+G17)) * $B$1/$B$2)/B17, 0)</f>
+        <v>74203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2.3E-3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>9647</v>
+      </c>
+      <c r="D18">
+        <v>0.18</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>5898</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>148406</v>
+      </c>
+      <c r="I18">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>5.3E-3</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>22230</v>
+      </c>
+      <c r="D19">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>1114</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>64403</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A13:J13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -692,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -718,7 +718,7 @@
       </c>
       <c r="C16">
         <f>ROUND(POWER(2,$C$14)*B16, 0)</f>
-        <v>302</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>0.06</v>
@@ -742,7 +742,7 @@
       </c>
       <c r="J16">
         <f>LOG(H16*C16,2)</f>
-        <v>29.41508558106467</v>
+        <v>27.405499532235471</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -754,7 +754,7 @@
       </c>
       <c r="C17">
         <f t="shared" ref="C17:C19" si="2">ROUND(POWER(2,$C$14)*B17, 0)</f>
-        <v>9647</v>
+        <v>2412</v>
       </c>
       <c r="D17">
         <v>0.2</v>
@@ -783,7 +783,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>9647</v>
+        <v>2412</v>
       </c>
       <c r="D18">
         <v>0.18</v>
@@ -815,7 +815,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>22230</v>
+        <v>5557</v>
       </c>
       <c r="D19">
         <v>3.4000000000000002E-2</v>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Mode</t>
   </si>
@@ -95,8 +95,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -112,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,14 +128,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -432,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -451,7 +474,7 @@
     <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -459,7 +482,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -467,7 +490,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -489,24 +512,21 @@
       <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -538,7 +558,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -567,7 +587,7 @@
         <v>371014</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -599,7 +619,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -628,20 +648,20 @@
         <v>1894192</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -673,173 +693,208 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>65536</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>7200</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C14">
+      <c r="C22">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D22" t="s">
         <v>18</v>
       </c>
-      <c r="E14">
+      <c r="E22">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" t="s">
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
         <v>1</v>
       </c>
-      <c r="B16">
-        <v>7.2000000000000002E-5</v>
-      </c>
-      <c r="C16">
-        <f>ROUND(POWER(2,$C$14)*B16, 0)</f>
-        <v>75</v>
-      </c>
-      <c r="D16">
+      <c r="B24">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C24">
+        <f>ROUND(POWER(2,$C$22)*B24, 0)</f>
+        <v>262</v>
+      </c>
+      <c r="D24">
         <v>0.06</v>
       </c>
-      <c r="E16">
-        <f>ROUND(POWER(2,$E$14)*D16, 0)</f>
+      <c r="E24">
+        <f>ROUND(POWER(2,$E$22)*D24, 0)</f>
         <v>1966</v>
       </c>
-      <c r="F16">
+      <c r="F24">
         <v>25</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G24" s="1">
         <v>0.5</v>
       </c>
-      <c r="H16">
-        <f>ROUND(((F16*(1+G16)) * $B$1/$B$2)/B16, 0)</f>
-        <v>2370370</v>
-      </c>
-      <c r="I16">
+      <c r="H24">
+        <f>ROUND(((F24*(1+G24)) * $B$20/$B$21)/B24, 0)</f>
+        <v>1365333</v>
+      </c>
+      <c r="I24">
         <v>0.87</v>
       </c>
-      <c r="J16">
-        <f>LOG(H16*C16,2)</f>
-        <v>27.405499532235471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
+      <c r="J24">
+        <f>LOG(H24*C24,2)</f>
+        <v>28.414244433257871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="B25">
         <v>2.3E-3</v>
       </c>
-      <c r="C17">
-        <f t="shared" ref="C17:C19" si="2">ROUND(POWER(2,$C$14)*B17, 0)</f>
+      <c r="C25">
+        <f>ROUND(POWER(2,$C$22)*B25, 0)</f>
         <v>2412</v>
       </c>
-      <c r="D17">
+      <c r="D25">
         <v>0.2</v>
       </c>
-      <c r="E17">
-        <f t="shared" ref="E17:E19" si="3">ROUND(POWER(2,$E$14)*D17, 0)</f>
+      <c r="E25">
+        <f>ROUND(POWER(2,$E$22)*D25, 0)</f>
         <v>6554</v>
       </c>
-      <c r="F17">
+      <c r="F25">
         <v>25</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G25" s="1">
         <v>0.5</v>
       </c>
-      <c r="H17">
-        <f t="shared" ref="H17:H19" si="4">ROUND(((F17*(1+G17)) * $B$1/$B$2)/B17, 0)</f>
-        <v>74203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
+      <c r="H25">
+        <f>ROUND(((F25*(1+G25)) * $B$20/$B$21)/B25, 0)</f>
+        <v>148406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
         <v>3</v>
       </c>
-      <c r="B18">
+      <c r="B26">
         <v>2.3E-3</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="2"/>
+      <c r="C26">
+        <f>ROUND(POWER(2,$C$22)*B26, 0)</f>
         <v>2412</v>
       </c>
-      <c r="D18">
+      <c r="D26">
         <v>0.18</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
+      <c r="E26">
+        <f>ROUND(POWER(2,$E$22)*D26, 0)</f>
         <v>5898</v>
       </c>
-      <c r="F18">
+      <c r="F26">
         <v>50</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G26" s="1">
         <v>0.5</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="4"/>
-        <v>148406</v>
-      </c>
-      <c r="I18">
+      <c r="H26">
+        <f>ROUND(((F26*(1+G26)) * $B$20/$B$21)/B26, 0)</f>
+        <v>296812</v>
+      </c>
+      <c r="I26">
         <v>0.87</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="B19">
+      <c r="B27">
         <v>5.3E-3</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="2"/>
+      <c r="C27">
+        <f>ROUND(POWER(2,$C$22)*B27, 0)</f>
         <v>5557</v>
       </c>
-      <c r="D19">
+      <c r="D27">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="3"/>
+      <c r="E27">
+        <f>ROUND(POWER(2,$E$22)*D27, 0)</f>
         <v>1114</v>
       </c>
-      <c r="F19">
+      <c r="F27">
         <v>50</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G27" s="1">
         <v>0.5</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="4"/>
-        <v>64403</v>
+      <c r="H27">
+        <f>ROUND(((F27*(1+G27)) * $B$20/$B$21)/B27, 0)</f>
+        <v>128805</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A19:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -776,11 +776,11 @@
         <v>262</v>
       </c>
       <c r="D24">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="E24">
         <f>ROUND(POWER(2,$E$22)*D24, 0)</f>
-        <v>1966</v>
+        <v>8192</v>
       </c>
       <c r="F24">
         <v>25</v>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Mode</t>
   </si>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -793,7 +793,7 @@
         <v>1365333</v>
       </c>
       <c r="I24">
-        <v>0.87</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="J24">
         <f>LOG(H24*C24,2)</f>
@@ -804,91 +804,130 @@
       <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B25">
-        <v>2.3E-3</v>
-      </c>
-      <c r="C25">
-        <f>ROUND(POWER(2,$C$22)*B25, 0)</f>
-        <v>2412</v>
-      </c>
-      <c r="D25">
-        <v>0.2</v>
-      </c>
-      <c r="E25">
-        <f>ROUND(POWER(2,$E$22)*D25, 0)</f>
-        <v>6554</v>
-      </c>
-      <c r="F25">
-        <v>25</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H25">
-        <f>ROUND(((F25*(1+G25)) * $B$20/$B$21)/B25, 0)</f>
-        <v>148406</v>
-      </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>3</v>
       </c>
-      <c r="B26">
-        <v>2.3E-3</v>
-      </c>
-      <c r="C26">
-        <f>ROUND(POWER(2,$C$22)*B26, 0)</f>
-        <v>2412</v>
-      </c>
-      <c r="D26">
-        <v>0.18</v>
-      </c>
-      <c r="E26">
-        <f>ROUND(POWER(2,$E$22)*D26, 0)</f>
-        <v>5898</v>
-      </c>
-      <c r="F26">
-        <v>50</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H26">
-        <f>ROUND(((F26*(1+G26)) * $B$20/$B$21)/B26, 0)</f>
-        <v>296812</v>
-      </c>
-      <c r="I26">
-        <v>0.87</v>
-      </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="B27">
-        <v>5.3E-3</v>
-      </c>
-      <c r="C27">
-        <f>ROUND(POWER(2,$C$22)*B27, 0)</f>
-        <v>5557</v>
-      </c>
-      <c r="D27">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E27">
-        <f>ROUND(POWER(2,$E$22)*D27, 0)</f>
-        <v>1114</v>
-      </c>
-      <c r="F27">
-        <v>50</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>65536</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>14400</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="C33">
+        <f>ROUND(POWER(2,$C$22)*B33, 0)</f>
+        <v>220</v>
+      </c>
+      <c r="D33">
+        <v>0.2</v>
+      </c>
+      <c r="E33">
+        <f>ROUND(POWER(2,$E$22)*D33, 0)</f>
+        <v>6554</v>
+      </c>
+      <c r="F33">
+        <v>25</v>
+      </c>
+      <c r="G33" s="1">
         <v>0.5</v>
       </c>
-      <c r="H27">
-        <f>ROUND(((F27*(1+G27)) * $B$20/$B$21)/B27, 0)</f>
-        <v>128805</v>
-      </c>
+      <c r="H33">
+        <f>ROUND(((F33*(1+G33)) * $B$20/$B$21)/B33, 0)</f>
+        <v>1625397</v>
+      </c>
+      <c r="I33">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J33">
+        <f>LOG(H33*C33,2)</f>
+        <v>28.413720419438555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -900,34 +900,112 @@
         <v>0.5</v>
       </c>
       <c r="H33">
-        <f>ROUND(((F33*(1+G33)) * $B$20/$B$21)/B33, 0)</f>
-        <v>1625397</v>
+        <f>ROUND(((F33*(1+G33)) * $B$29/$B$30)/B33, 0)</f>
+        <v>812698</v>
       </c>
       <c r="I33">
         <v>0.81499999999999995</v>
       </c>
       <c r="J33">
         <f>LOG(H33*C33,2)</f>
-        <v>28.413720419438555</v>
+        <v>27.413719531842798</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="C34">
+        <f t="shared" ref="C34:C36" si="2">ROUND(POWER(2,$C$22)*B34, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E36" si="3">ROUND(POWER(2,$E$22)*D34, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>25</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H34" t="e">
+        <f t="shared" ref="H34:H36" si="4">ROUND(((F34*(1+G34)) * $B$29/$B$30)/B34, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J34" t="e">
+        <f t="shared" ref="J34:J36" si="5">LOG(H34*C34,2)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="B35">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="D35">
+        <v>0.2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>6554</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>1625397</v>
+      </c>
+      <c r="I35">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>28.413720419438555</v>
+      </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>25</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J36" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Mode</t>
   </si>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -806,204 +806,126 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>65536</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>14400</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:C32" si="2">ROUND(POWER(2,$C$22)*B31, 0)</f>
+        <v>262</v>
+      </c>
+      <c r="D31">
+        <v>0.25</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E32" si="3">ROUND(POWER(2,$E$22)*D31, 0)</f>
+        <v>8192</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H31">
+        <f>ROUND(((F31*(1+G31)) * $B$27/$B$28)/B31, 0)</f>
+        <v>1365333</v>
+      </c>
+      <c r="I31">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31:J32" si="4">LOG(H31*C31,2)</f>
+        <v>28.414244433257871</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29">
-        <v>65536</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
-        <v>14400</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31">
-        <v>20</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31">
-        <v>15</v>
-      </c>
-      <c r="J31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>2.1000000000000001E-4</v>
-      </c>
-      <c r="C33">
-        <f>ROUND(POWER(2,$C$22)*B33, 0)</f>
-        <v>220</v>
-      </c>
-      <c r="D33">
-        <v>0.2</v>
-      </c>
-      <c r="E33">
-        <f>ROUND(POWER(2,$E$22)*D33, 0)</f>
-        <v>6554</v>
-      </c>
-      <c r="F33">
-        <v>25</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H33">
-        <f>ROUND(((F33*(1+G33)) * $B$29/$B$30)/B33, 0)</f>
-        <v>812698</v>
-      </c>
-      <c r="I33">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="J33">
-        <f>LOG(H33*C33,2)</f>
-        <v>27.413719531842798</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:C36" si="2">ROUND(POWER(2,$C$22)*B34, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ref="E34:E36" si="3">ROUND(POWER(2,$E$22)*D34, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>25</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H34" t="e">
-        <f t="shared" ref="H34:H36" si="4">ROUND(((F34*(1+G34)) * $B$29/$B$30)/B34, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="J34" t="e">
-        <f t="shared" ref="J34:J36" si="5">LOG(H34*C34,2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35">
-        <v>2.1000000000000001E-4</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-      <c r="D35">
-        <v>0.2</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="3"/>
-        <v>6554</v>
-      </c>
-      <c r="F35">
-        <v>50</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="4"/>
-        <v>1625397</v>
-      </c>
-      <c r="I35">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="5"/>
-        <v>28.413720419438555</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36">
+      <c r="C32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E36">
+      <c r="E32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F36">
+      <c r="F32">
         <v>25</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G32" s="1">
         <v>0.5</v>
       </c>
-      <c r="H36" t="e">
+      <c r="H32" t="e">
+        <f>ROUND(((F32*(1+G32)) * $B$27/$B$28)/B32, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J32" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="J36" t="e">
-        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820C5B9C-5A26-4F40-BC74-54F72CC90EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28755" windowHeight="14385"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="28760" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Mode</t>
   </si>
@@ -94,8 +100,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -129,10 +135,81 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -141,18 +218,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,9 +266,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,7 +306,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -245,6 +340,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -279,9 +375,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,27 +551,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -482,7 +579,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -490,7 +587,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -513,20 +610,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -558,7 +655,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -587,7 +684,7 @@
         <v>371014</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -619,7 +716,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -648,20 +745,20 @@
         <v>1894192</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -693,240 +790,340 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>65536</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="9">
         <v>7200</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="9">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="9">
         <v>15</v>
       </c>
-      <c r="J22" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="B23" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="14">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="14">
         <f>ROUND(POWER(2,$C$22)*B24, 0)</f>
         <v>262</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="14">
         <v>0.25</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="14">
         <f>ROUND(POWER(2,$E$22)*D24, 0)</f>
         <v>8192</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="14">
         <v>25</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="15">
         <v>0.5</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="14">
         <f>ROUND(((F24*(1+G24)) * $B$20/$B$21)/B24, 0)</f>
         <v>1365333</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="14">
         <v>0.81499999999999995</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="16">
         <f>LOG(H24*C24,2)</f>
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
+    <row r="25" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="5">
+        <v>65536</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="9">
+        <v>14400</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="9">
+        <v>20</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="9">
+        <v>15</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="14">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C30" s="14">
+        <f>ROUND(POWER(2,$C$28)*B30, 0)</f>
+        <v>262</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E30" s="14">
+        <f t="shared" ref="E30" si="2">ROUND(POWER(2,$E$22)*D30, 0)</f>
+        <v>8192</v>
+      </c>
+      <c r="F30" s="14">
+        <v>50</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="14">
+        <f>ROUND(((F30*(1+G30)) * $B$26/$B$27)/B30, 0)</f>
+        <v>1365333</v>
+      </c>
+      <c r="I30" s="14">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" ref="J30" si="3">LOG(H30*C30,2)</f>
+        <v>28.414244433257871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="5">
+        <v>65536</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="9">
+        <v>14400</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="9">
+        <v>20</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="9">
+        <v>15</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27">
-        <v>65536</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28">
-        <v>14400</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29">
-        <v>15</v>
-      </c>
-      <c r="J29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ref="C31:C32" si="2">ROUND(POWER(2,$C$22)*B31, 0)</f>
-        <v>262</v>
-      </c>
-      <c r="D31">
-        <v>0.25</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ref="E31:E32" si="3">ROUND(POWER(2,$E$22)*D31, 0)</f>
-        <v>8192</v>
-      </c>
-      <c r="F31">
-        <v>50</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="B36" s="14">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C36" s="14">
+        <f>ROUND(POWER(2,$C$34)*B36, 0)</f>
+        <v>19</v>
+      </c>
+      <c r="D36" s="14">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" ref="E36" si="4">ROUND(POWER(2,$E$22)*D36, 0)</f>
+        <v>524</v>
+      </c>
+      <c r="F36" s="14">
+        <v>25</v>
+      </c>
+      <c r="G36" s="15">
         <v>0.5</v>
       </c>
-      <c r="H31">
-        <f>ROUND(((F31*(1+G31)) * $B$27/$B$28)/B31, 0)</f>
-        <v>1365333</v>
-      </c>
-      <c r="I31">
+      <c r="H36" s="14">
+        <f>ROUND(((F36*(1+G36)) * $B$26/$B$27)/B36, 0)</f>
+        <v>9481481</v>
+      </c>
+      <c r="I36" s="14">
         <v>0.81499999999999995</v>
       </c>
-      <c r="J31">
-        <f t="shared" ref="J31:J32" si="4">LOG(H31*C31,2)</f>
-        <v>28.414244433257871</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>25</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H32" t="e">
-        <f>ROUND(((F32*(1+G32)) * $B$27/$B$28)/B32, 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="J32" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="J36" s="16">
+        <f t="shared" ref="J36" si="5">LOG(H36*C36,2)</f>
+        <v>27.424608507342434</v>
       </c>
     </row>
   </sheetData>
@@ -941,24 +1138,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820C5B9C-5A26-4F40-BC74-54F72CC90EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="28760" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28755" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>Mode</t>
   </si>
@@ -100,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,12 +215,6 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -248,6 +236,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,9 +260,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -306,7 +300,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -340,7 +334,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -375,10 +368,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -551,27 +543,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -579,7 +571,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -587,7 +579,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -610,20 +602,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -655,7 +647,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -684,7 +676,7 @@
         <v>371014</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -716,7 +708,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -745,20 +737,20 @@
         <v>1894192</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -790,340 +782,447 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>65536</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="7">
         <v>7200</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>20</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <v>15</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="12" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A24" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="12">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="12">
         <f>ROUND(POWER(2,$C$22)*B24, 0)</f>
         <v>262</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>0.25</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="12">
         <f>ROUND(POWER(2,$E$22)*D24, 0)</f>
         <v>8192</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="12">
         <v>25</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="13">
         <v>0.5</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="12">
         <f>ROUND(((F24*(1+G24)) * $B$20/$B$21)/B24, 0)</f>
         <v>1365333</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="12">
         <v>0.81499999999999995</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="14">
         <f>LOG(H24*C24,2)</f>
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>65536</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="7">
         <v>14400</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="7">
         <v>20</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="7">
         <v>15</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="12" t="s">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="12">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="12">
         <f>ROUND(POWER(2,$C$28)*B30, 0)</f>
         <v>262</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="12">
         <v>0.25</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="12">
         <f t="shared" ref="E30" si="2">ROUND(POWER(2,$E$22)*D30, 0)</f>
         <v>8192</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="12">
         <v>50</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="13">
         <v>0.5</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="12">
         <f>ROUND(((F30*(1+G30)) * $B$26/$B$27)/B30, 0)</f>
         <v>1365333</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="12">
         <v>0.81499999999999995</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="14">
         <f t="shared" ref="J30" si="3">LOG(H30*C30,2)</f>
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>65536</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="7">
         <v>14400</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="7">
         <v>20</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="7">
         <v>15</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="12" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="12">
         <v>1.8E-5</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="12">
         <f>ROUND(POWER(2,$C$34)*B36, 0)</f>
         <v>19</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="12">
         <v>1.6E-2</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="12">
         <f t="shared" ref="E36" si="4">ROUND(POWER(2,$E$22)*D36, 0)</f>
         <v>524</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="12">
         <v>25</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="13">
         <v>0.5</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="12">
         <f>ROUND(((F36*(1+G36)) * $B$26/$B$27)/B36, 0)</f>
         <v>9481481</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="12">
         <v>0.81499999999999995</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="14">
         <f t="shared" ref="J36" si="5">LOG(H36*C36,2)</f>
         <v>27.424608507342434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="7">
+        <v>14400</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="7">
+        <v>20</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="7">
+        <v>15</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A42" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C42" s="12">
+        <f>ROUND(POWER(2,$C$34)*B42, 0)</f>
+        <v>210</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" ref="E42" si="6">ROUND(POWER(2,$E$22)*D42, 0)</f>
+        <v>4915</v>
+      </c>
+      <c r="F42" s="12">
+        <v>25</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="12">
+        <f>ROUND(((F42*(1+G42)) * $B$26/$B$27)/B42, 0)</f>
+        <v>853333</v>
+      </c>
+      <c r="I42" s="12">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J42" s="14">
+        <f t="shared" ref="J42" si="7">LOG(H42*C42,2)</f>
+        <v>27.416994832941555</v>
       </c>
     </row>
   </sheetData>
@@ -1138,24 +1237,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1107,7 +1107,7 @@
         <v>0.5</v>
       </c>
       <c r="H36" s="12">
-        <f>ROUND(((F36*(1+G36)) * $B$26/$B$27)/B36, 0)</f>
+        <f>ROUND(((F36*(1+G36)) * $B$32/$B$33)/B36, 0)</f>
         <v>9481481</v>
       </c>
       <c r="I36" s="12">
@@ -1214,7 +1214,7 @@
         <v>0.5</v>
       </c>
       <c r="H42" s="12">
-        <f>ROUND(((F42*(1+G42)) * $B$26/$B$27)/B42, 0)</f>
+        <f>ROUND(((F42*(1+G42)) * $B$38/$B$39)/B42, 0)</f>
         <v>853333</v>
       </c>
       <c r="I42" s="12">

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0EB3CB-EE5C-BC42-AF0E-845FB9F68C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DF72F5-CDB3-7E4C-AE37-CB0C541048B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="28760" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11980" yWindow="40" windowWidth="16780" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>BPSK 300</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>A fast tune that takes less than 2 packets to pull-in from max offset</t>
+  </si>
+  <si>
+    <t>A fast tune for high SNR</t>
+  </si>
+  <si>
+    <t>200 Hz loop bandwidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sensitive tune </t>
   </si>
 </sst>
 </file>
@@ -223,10 +232,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -551,18 +560,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -927,7 +936,7 @@
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>4.3999999999999897E-5</v>
       </c>
       <c r="C24" s="11">
@@ -1009,6 +1018,9 @@
       <c r="J28" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
@@ -1019,24 +1031,27 @@
         <v>7</v>
       </c>
       <c r="J29" s="9"/>
+      <c r="L29" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="11">
-        <v>2.5000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="C30" s="11">
         <f>ROUND(POWER(2,$C$10)*B30, 0)</f>
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="D30" s="11">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="E30" s="11">
         <f>ROUND(POWER(2,$E$4)*D30, 0)</f>
-        <v>8192</v>
+        <v>2949</v>
       </c>
       <c r="F30" s="11">
         <v>50</v>
@@ -1046,14 +1061,117 @@
       </c>
       <c r="H30" s="11">
         <f>ROUND(((F30*(1+G30)) * $B$8/$B$9)/B30, 0)</f>
-        <v>1365333</v>
+        <v>1706667</v>
       </c>
       <c r="I30" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J30" s="13">
         <f t="shared" ref="J30" si="6">LOG(H30*C30,2)</f>
-        <v>28.414244433257871</v>
+        <v>28.416995678270762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>14400</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="L35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="C36" s="11">
+        <f>ROUND(POWER(2,$C$10)*B36, 0)</f>
+        <v>105</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="E36" s="11">
+        <f>ROUND(POWER(2,$E$4)*D36, 0)</f>
+        <v>983</v>
+      </c>
+      <c r="F36" s="11">
+        <v>50</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H36" s="11">
+        <f>ROUND(((F36*(1+G36)) * $B$8/$B$9)/B36, 0)</f>
+        <v>3413333</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J36" s="13">
+        <f t="shared" ref="J36" si="7">LOG(H36*C36,2)</f>
+        <v>28.416995255606221</v>
       </c>
     </row>
   </sheetData>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DF72F5-CDB3-7E4C-AE37-CB0C541048B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="40" windowWidth="16780" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11985" yWindow="45" windowWidth="16785" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -91,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,9 +248,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +288,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -328,7 +322,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -363,10 +356,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -539,27 +531,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -573,7 +565,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -589,7 +581,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -605,7 +597,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -623,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -633,7 +625,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -669,8 +661,8 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -686,7 +678,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -702,7 +694,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>8</v>
@@ -720,7 +712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -730,7 +722,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -766,10 +758,10 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -785,7 +777,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -804,7 +796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>8</v>
@@ -822,7 +814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>4</v>
@@ -832,7 +824,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
@@ -868,8 +860,8 @@
         <v>27.424608507342434</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -885,7 +877,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -904,7 +896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>8</v>
@@ -922,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>4</v>
@@ -932,23 +924,23 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="14">
-        <v>4.3999999999999897E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="C24" s="11">
         <f>ROUND(POWER(2,$C$16)*B24, 0)</f>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D24" s="11">
-        <v>2.4E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" ref="E24" si="4">ROUND(POWER(2,$E$4)*D24, 0)</f>
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="F24" s="11">
         <v>25</v>
@@ -958,18 +950,18 @@
       </c>
       <c r="H24" s="11">
         <f>ROUND(((F24*(1+G24)) * $B$20/$B$21)/B24, 0)</f>
-        <v>3878788</v>
+        <v>5688889</v>
       </c>
       <c r="I24" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J24" s="13">
         <f t="shared" ref="J24" si="5">LOG(H24*C24,2)</f>
-        <v>27.410736451106956</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>27.393911811559015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -985,7 +977,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1001,7 +993,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>8</v>
@@ -1022,7 +1014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>4</v>
@@ -1035,7 +1027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
@@ -1071,8 +1063,8 @@
         <v>28.416995678270762</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1088,7 +1080,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1096,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>8</v>
@@ -1125,7 +1117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>4</v>
@@ -1138,7 +1130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.75" thickBot="1">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -1184,24 +1176,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D77CC6-DA34-FF4B-87E4-62DC939440FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="45" windowWidth="16785" windowHeight="14385"/>
+    <workbookView xWindow="11980" yWindow="40" windowWidth="16780" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -85,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +294,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -322,6 +328,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -356,9 +363,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -531,27 +539,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -565,7 +573,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -581,7 +589,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -597,7 +605,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -615,7 +623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -625,7 +633,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -661,8 +669,8 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:12">
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -678,7 +686,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -694,7 +702,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>8</v>
@@ -712,7 +720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -722,7 +730,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -758,10 +766,10 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -777,7 +785,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -796,7 +804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>8</v>
@@ -814,7 +822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>4</v>
@@ -824,7 +832,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
@@ -860,8 +868,8 @@
         <v>27.424608507342434</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:12">
+    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -877,7 +885,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -896,7 +904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>8</v>
@@ -914,7 +922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>4</v>
@@ -924,23 +932,23 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+    <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="14">
-        <v>3.0000000000000001E-5</v>
+        <v>3.1000000000000001E-5</v>
       </c>
       <c r="C24" s="11">
         <f>ROUND(POWER(2,$C$16)*B24, 0)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" s="11">
-        <v>2.3E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" ref="E24" si="4">ROUND(POWER(2,$E$4)*D24, 0)</f>
-        <v>754</v>
+        <v>590</v>
       </c>
       <c r="F24" s="11">
         <v>25</v>
@@ -950,18 +958,18 @@
       </c>
       <c r="H24" s="11">
         <f>ROUND(((F24*(1+G24)) * $B$20/$B$21)/B24, 0)</f>
-        <v>5688889</v>
+        <v>5505376</v>
       </c>
       <c r="I24" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J24" s="13">
         <f t="shared" ref="J24" si="5">LOG(H24*C24,2)</f>
-        <v>27.393911811559015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="26" spans="1:12">
+        <v>27.436803787406156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -977,7 +985,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -993,7 +1001,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>8</v>
@@ -1014,7 +1022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>4</v>
@@ -1027,7 +1035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+    <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
@@ -1063,8 +1071,8 @@
         <v>28.416995678270762</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="32" spans="1:12">
+    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1080,7 +1088,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -1096,7 +1104,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>8</v>
@@ -1117,7 +1125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>4</v>
@@ -1130,7 +1138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -1176,24 +1184,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D77CC6-DA34-FF4B-87E4-62DC939440FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE3066C-0EBD-574F-9858-80AE6666E3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="40" windowWidth="16780" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -944,28 +944,28 @@
         <v>33</v>
       </c>
       <c r="D24" s="11">
-        <v>1.7999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" ref="E24" si="4">ROUND(POWER(2,$E$4)*D24, 0)</f>
-        <v>590</v>
+        <v>655</v>
       </c>
       <c r="F24" s="11">
         <v>25</v>
       </c>
       <c r="G24" s="12">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H24" s="11">
         <f>ROUND(((F24*(1+G24)) * $B$20/$B$21)/B24, 0)</f>
-        <v>5505376</v>
+        <v>6422939</v>
       </c>
       <c r="I24" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J24" s="13">
         <f t="shared" ref="J24" si="5">LOG(H24*C24,2)</f>
-        <v>27.436803787406156</v>
+        <v>27.659196283614612</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE3066C-0EBD-574F-9858-80AE6666E3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="40" windowWidth="16780" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11985" yWindow="45" windowWidth="16785" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -91,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,9 +248,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +288,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -328,7 +322,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -363,10 +356,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -539,27 +531,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -573,7 +565,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -589,7 +581,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -605,7 +597,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -623,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -633,7 +625,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -669,8 +661,8 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -686,7 +678,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -702,7 +694,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>8</v>
@@ -720,7 +712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -730,7 +722,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -766,10 +758,10 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -785,7 +777,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -804,7 +796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>8</v>
@@ -822,7 +814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>4</v>
@@ -832,7 +824,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
@@ -868,8 +860,8 @@
         <v>27.424608507342434</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -885,7 +877,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -904,7 +896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>8</v>
@@ -922,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>4</v>
@@ -932,7 +924,7 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
@@ -968,8 +960,8 @@
         <v>27.659196283614612</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -985,7 +977,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1001,7 +993,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>8</v>
@@ -1022,7 +1014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>4</v>
@@ -1035,7 +1027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
@@ -1071,8 +1063,8 @@
         <v>28.416995678270762</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1088,7 +1080,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1096,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>8</v>
@@ -1125,7 +1117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>4</v>
@@ -1138,7 +1130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.75" thickBot="1">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -1184,24 +1176,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
   <si>
     <t>BPSK 300</t>
   </si>
@@ -532,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1163,6 +1163,103 @@
       </c>
       <c r="J36" s="13">
         <f t="shared" ref="J36" si="7">LOG(H36*C36,2)</f>
+        <v>28.416995255606221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="38" spans="1:12">
+      <c r="A38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>7200</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="6"/>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>15</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="6"/>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A42" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="C42" s="11">
+        <f>ROUND(POWER(2,$C$4)*B42, 0)</f>
+        <v>105</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E42" s="11">
+        <f>ROUND(POWER(2,$E$4)*D42, 0)</f>
+        <v>1638</v>
+      </c>
+      <c r="F42" s="11">
+        <v>25</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="11">
+        <f>ROUND(((F42*(1+G42)) * $B$2/$B$3)/B42, 0)</f>
+        <v>3413333</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J42" s="13">
+        <f>LOG(H42*C42,2)</f>
         <v>28.416995255606221</v>
       </c>
     </row>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759FAADB-C2CF-2E45-B93C-E6FB9977CAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="45" windowWidth="16785" windowHeight="14385"/>
+    <workbookView xWindow="11980" yWindow="40" windowWidth="16780" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="17">
   <si>
     <t>BPSK 300</t>
   </si>
@@ -85,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +294,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -322,6 +328,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -356,9 +363,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -531,27 +539,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -565,7 +573,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -581,7 +589,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -597,7 +605,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -615,7 +623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -625,7 +633,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -661,8 +669,8 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:12">
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -678,7 +686,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -694,7 +702,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>8</v>
@@ -712,7 +720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -722,7 +730,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -744,24 +752,24 @@
         <v>50</v>
       </c>
       <c r="G12" s="12">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H12" s="11">
         <f>ROUND(((F12*(1+G12)) * $B$8/$B$9)/B12, 0)</f>
-        <v>1365333</v>
+        <v>1592889</v>
       </c>
       <c r="I12" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J12" s="13">
         <f t="shared" ref="J12" si="1">LOG(H12*C12,2)</f>
-        <v>28.414244433257871</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+        <v>28.636637307449245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -777,7 +785,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -796,7 +804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>8</v>
@@ -814,7 +822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>4</v>
@@ -824,7 +832,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
@@ -860,8 +868,8 @@
         <v>27.424608507342434</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:12">
+    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -877,7 +885,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -896,7 +904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>8</v>
@@ -914,7 +922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>4</v>
@@ -924,7 +932,7 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+    <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
@@ -960,8 +968,8 @@
         <v>27.659196283614612</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="26" spans="1:12">
+    <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -977,7 +985,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -993,7 +1001,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>8</v>
@@ -1014,7 +1022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>4</v>
@@ -1027,7 +1035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+    <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
@@ -1063,8 +1071,8 @@
         <v>28.416995678270762</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="32" spans="1:12">
+    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1080,7 +1088,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -1096,7 +1104,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>8</v>
@@ -1117,7 +1125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>4</v>
@@ -1130,7 +1138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -1166,8 +1174,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="38" spans="1:12">
+    <row r="37" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -1183,7 +1191,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -1199,7 +1207,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>8</v>
@@ -1217,7 +1225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>4</v>
@@ -1227,7 +1235,7 @@
       </c>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1">
+    <row r="42" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
@@ -1261,6 +1269,103 @@
       <c r="J42" s="13">
         <f>LOG(H42*C42,2)</f>
         <v>28.416995255606221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>14400</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>15</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C48" s="11">
+        <f>ROUND(POWER(2,$C$10)*B48, 0)</f>
+        <v>315</v>
+      </c>
+      <c r="D48" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="E48" s="11">
+        <f t="shared" ref="E48" si="8">ROUND(POWER(2,$E$4)*D48, 0)</f>
+        <v>7864</v>
+      </c>
+      <c r="F48" s="11">
+        <v>50</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H48" s="11">
+        <f>ROUND(((F48*(1+G48)) * $B$8/$B$9)/B48, 0)</f>
+        <v>1327407</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J48" s="13">
+        <f t="shared" ref="J48" si="9">LOG(H48*C48,2)</f>
+        <v>28.639387375039352</v>
       </c>
     </row>
   </sheetData>
@@ -1273,24 +1378,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759FAADB-C2CF-2E45-B93C-E6FB9977CAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="40" windowWidth="16780" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11985" yWindow="45" windowWidth="16785" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
   <si>
     <t>BPSK 300</t>
   </si>
@@ -86,13 +80,16 @@
   </si>
   <si>
     <t xml:space="preserve">A sensitive tune </t>
+  </si>
+  <si>
+    <t>This is the best tune so far</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,9 +251,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +291,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -328,7 +325,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -363,10 +359,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -539,27 +534,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -573,7 +568,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -589,7 +584,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -605,7 +600,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -623,7 +618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -633,7 +628,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -669,8 +664,8 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -686,7 +681,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -702,7 +697,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>8</v>
@@ -719,8 +714,11 @@
       <c r="J10" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -730,7 +728,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -752,24 +750,24 @@
         <v>50</v>
       </c>
       <c r="G12" s="12">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H12" s="11">
         <f>ROUND(((F12*(1+G12)) * $B$8/$B$9)/B12, 0)</f>
-        <v>1592889</v>
+        <v>1365333</v>
       </c>
       <c r="I12" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J12" s="13">
         <f t="shared" ref="J12" si="1">LOG(H12*C12,2)</f>
-        <v>28.636637307449245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>28.414244433257871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -785,7 +783,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -804,7 +802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>8</v>
@@ -822,7 +820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>4</v>
@@ -832,7 +830,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
@@ -868,8 +866,8 @@
         <v>27.424608507342434</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -885,7 +883,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -904,7 +902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>8</v>
@@ -922,7 +920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>4</v>
@@ -932,7 +930,7 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
@@ -968,8 +966,8 @@
         <v>27.659196283614612</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -985,7 +983,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1001,7 +999,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>8</v>
@@ -1022,7 +1020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>4</v>
@@ -1035,7 +1033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
@@ -1071,8 +1069,8 @@
         <v>28.416995678270762</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1088,7 +1086,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1102,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>8</v>
@@ -1125,7 +1123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>4</v>
@@ -1138,7 +1136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.75" thickBot="1">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -1174,8 +1172,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -1191,7 +1189,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1205,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>8</v>
@@ -1225,7 +1223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>4</v>
@@ -1235,7 +1233,7 @@
       </c>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.75" thickBot="1">
       <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
@@ -1271,8 +1269,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -1288,7 +1286,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45" s="6" t="s">
         <v>6</v>
       </c>
@@ -1304,7 +1302,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="A46" s="6"/>
       <c r="B46" t="s">
         <v>8</v>
@@ -1322,7 +1320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47" s="6"/>
       <c r="B47" t="s">
         <v>4</v>
@@ -1332,7 +1330,7 @@
       </c>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.75" thickBot="1">
       <c r="A48" s="10" t="s">
         <v>2</v>
       </c>
@@ -1378,24 +1376,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
   <si>
     <t>BPSK 300</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>This is the best tune so far</t>
+  </si>
+  <si>
+    <t>adjust for 25 hz offset</t>
   </si>
 </sst>
 </file>
@@ -535,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1364,6 +1367,106 @@
       <c r="J48" s="13">
         <f t="shared" ref="J48" si="9">LOG(H48*C48,2)</f>
         <v>28.639387375039352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="50" spans="1:12">
+      <c r="A50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>14400</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="6"/>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>15</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="6"/>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A54" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="C54" s="11">
+        <f>ROUND(POWER(2,$C$10)*B54, 0)</f>
+        <v>105</v>
+      </c>
+      <c r="D54" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="E54" s="11">
+        <f>ROUND(POWER(2,$E$4)*D54, 0)</f>
+        <v>983</v>
+      </c>
+      <c r="F54" s="11">
+        <v>25</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H54" s="11">
+        <f>ROUND(((F54*(1+G54)) * $B$8/$B$9)/B54, 0)</f>
+        <v>1706667</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J54" s="13">
+        <f t="shared" ref="J54" si="10">LOG(H54*C54,2)</f>
+        <v>27.416995678270766</v>
       </c>
     </row>
   </sheetData>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
   <si>
     <t>BPSK 300</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>adjust for 25 hz offset</t>
+  </si>
+  <si>
+    <t>adjust for 13 hz offset</t>
   </si>
 </sst>
 </file>
@@ -540,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -922,6 +925,9 @@
       <c r="J22" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="6"/>
@@ -952,21 +958,21 @@
         <v>655</v>
       </c>
       <c r="F24" s="11">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G24" s="12">
         <v>0.75</v>
       </c>
       <c r="H24" s="11">
         <f>ROUND(((F24*(1+G24)) * $B$20/$B$21)/B24, 0)</f>
-        <v>6422939</v>
+        <v>3339928</v>
       </c>
       <c r="I24" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J24" s="13">
         <f t="shared" ref="J24" si="5">LOG(H24*C24,2)</f>
-        <v>27.659196283614612</v>
+        <v>26.715779691033887</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1"/>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E482C50D-12E1-854B-BA4D-82447DEC8488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="45" windowWidth="16785" windowHeight="14385"/>
+    <workbookView xWindow="11980" yWindow="40" windowWidth="16780" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="21">
   <si>
     <t>BPSK 300</t>
   </si>
@@ -89,13 +95,16 @@
   </si>
   <si>
     <t>adjust for 13 hz offset</t>
+  </si>
+  <si>
+    <t>adjust limits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,9 +266,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -297,7 +306,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -331,6 +340,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -365,9 +375,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -540,27 +551,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -574,7 +585,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -590,7 +601,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -606,7 +617,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -624,7 +635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -634,7 +645,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -670,8 +681,8 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:12">
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -687,7 +698,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -703,7 +714,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>8</v>
@@ -724,7 +735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -734,7 +745,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -770,10 +781,10 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -789,7 +800,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -808,7 +819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>8</v>
@@ -826,7 +837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>4</v>
@@ -836,7 +847,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
@@ -872,8 +883,8 @@
         <v>27.424608507342434</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:12">
+    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -889,7 +900,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -908,7 +919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>8</v>
@@ -929,7 +940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>4</v>
@@ -939,7 +950,7 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+    <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
@@ -975,8 +986,8 @@
         <v>26.715779691033887</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="26" spans="1:12">
+    <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -992,7 +1003,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1008,7 +1019,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>8</v>
@@ -1029,7 +1040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>4</v>
@@ -1042,7 +1053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+    <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
@@ -1078,8 +1089,8 @@
         <v>28.416995678270762</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="32" spans="1:12">
+    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1106,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -1111,7 +1122,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>8</v>
@@ -1132,7 +1143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>4</v>
@@ -1145,7 +1156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -1181,8 +1192,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="38" spans="1:12">
+    <row r="37" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -1198,7 +1209,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -1214,7 +1225,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>8</v>
@@ -1232,7 +1243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>4</v>
@@ -1242,7 +1253,7 @@
       </c>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1">
+    <row r="42" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
@@ -1278,8 +1289,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="44" spans="1:12">
+    <row r="43" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -1295,7 +1306,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>6</v>
       </c>
@@ -1311,7 +1322,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" t="s">
         <v>8</v>
@@ -1329,7 +1340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" t="s">
         <v>4</v>
@@ -1339,7 +1350,7 @@
       </c>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1">
+    <row r="48" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>2</v>
       </c>
@@ -1375,8 +1386,8 @@
         <v>28.639387375039352</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="50" spans="1:12">
+    <row r="49" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -1392,7 +1403,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>6</v>
       </c>
@@ -1408,7 +1419,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" t="s">
         <v>8</v>
@@ -1429,7 +1440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" t="s">
         <v>4</v>
@@ -1439,7 +1450,7 @@
       </c>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1">
+    <row r="54" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>3</v>
       </c>
@@ -1473,6 +1484,109 @@
       <c r="J54" s="13">
         <f t="shared" ref="J54" si="10">LOG(H54*C54,2)</f>
         <v>27.416995678270766</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>14400</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>15</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="6"/>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="9"/>
+      <c r="L59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="14">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="C60" s="11">
+        <f>ROUND(POWER(2,$C$16)*B60, 0)</f>
+        <v>33</v>
+      </c>
+      <c r="D60" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E60" s="11">
+        <f t="shared" ref="E60" si="11">ROUND(POWER(2,$E$4)*D60, 0)</f>
+        <v>655</v>
+      </c>
+      <c r="F60" s="11">
+        <v>13</v>
+      </c>
+      <c r="G60" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="H60" s="11">
+        <f>ROUND(((F60*(1+G60)) * $B$20/$B$21)/B60, 0)</f>
+        <v>2385663</v>
+      </c>
+      <c r="I60" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J60" s="13">
+        <f t="shared" ref="J60" si="12">LOG(H60*C60,2)</f>
+        <v>26.230352950254424</v>
       </c>
     </row>
   </sheetData>
@@ -1485,24 +1599,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E482C50D-12E1-854B-BA4D-82447DEC8488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="40" windowWidth="16780" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11985" yWindow="45" windowWidth="16785" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -103,8 +97,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,9 +260,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -306,7 +300,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -340,7 +334,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -375,10 +368,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -551,27 +543,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -585,7 +577,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -601,7 +593,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -617,7 +609,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -635,7 +627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -645,7 +637,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -681,8 +673,8 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -698,7 +690,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -714,7 +706,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>8</v>
@@ -735,7 +727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -745,7 +737,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -781,10 +773,10 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -800,7 +792,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -819,7 +811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>8</v>
@@ -837,7 +829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>4</v>
@@ -847,7 +839,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
@@ -883,8 +875,8 @@
         <v>27.424608507342434</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -900,7 +892,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -919,7 +911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>8</v>
@@ -940,7 +932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>4</v>
@@ -950,7 +942,7 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
@@ -986,8 +978,8 @@
         <v>26.715779691033887</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -1003,7 +995,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1011,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>8</v>
@@ -1040,7 +1032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>4</v>
@@ -1053,7 +1045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
@@ -1089,8 +1081,8 @@
         <v>28.416995678270762</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1098,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -1122,7 +1114,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>8</v>
@@ -1143,7 +1135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>4</v>
@@ -1156,7 +1148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.75" thickBot="1">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -1192,8 +1184,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -1209,7 +1201,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1217,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>8</v>
@@ -1243,7 +1235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>4</v>
@@ -1253,7 +1245,7 @@
       </c>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.75" thickBot="1">
       <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
@@ -1289,8 +1281,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -1306,7 +1298,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45" s="6" t="s">
         <v>6</v>
       </c>
@@ -1322,7 +1314,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="A46" s="6"/>
       <c r="B46" t="s">
         <v>8</v>
@@ -1340,7 +1332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47" s="6"/>
       <c r="B47" t="s">
         <v>4</v>
@@ -1350,7 +1342,7 @@
       </c>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.75" thickBot="1">
       <c r="A48" s="10" t="s">
         <v>2</v>
       </c>
@@ -1386,8 +1378,8 @@
         <v>28.639387375039352</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -1403,7 +1395,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51" s="6" t="s">
         <v>6</v>
       </c>
@@ -1419,7 +1411,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12">
       <c r="A52" s="6"/>
       <c r="B52" t="s">
         <v>8</v>
@@ -1440,7 +1432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12">
       <c r="A53" s="6"/>
       <c r="B53" t="s">
         <v>4</v>
@@ -1450,7 +1442,7 @@
       </c>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.75" thickBot="1">
       <c r="A54" s="10" t="s">
         <v>3</v>
       </c>
@@ -1486,8 +1478,8 @@
         <v>27.416995678270766</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="56" spans="1:12">
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
@@ -1503,7 +1495,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
@@ -1519,7 +1511,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="A58" s="6"/>
       <c r="B58" t="s">
         <v>8</v>
@@ -1540,7 +1532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="A59" s="6"/>
       <c r="B59" t="s">
         <v>4</v>
@@ -1553,7 +1545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="15.75" thickBot="1">
       <c r="A60" s="10" t="s">
         <v>1</v>
       </c>
@@ -1575,18 +1567,18 @@
         <v>13</v>
       </c>
       <c r="G60" s="12">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="H60" s="11">
         <f>ROUND(((F60*(1+G60)) * $B$20/$B$21)/B60, 0)</f>
-        <v>2385663</v>
+        <v>2538346</v>
       </c>
       <c r="I60" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J60" s="13">
         <f t="shared" ref="J60" si="12">LOG(H60*C60,2)</f>
-        <v>26.230352950254424</v>
+        <v>26.319851423922206</v>
       </c>
     </row>
   </sheetData>
@@ -1599,24 +1591,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37F14C9-16F9-A24E-85A6-C8900096E13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="45" windowWidth="16785" windowHeight="14385"/>
+    <workbookView xWindow="11980" yWindow="40" windowWidth="16780" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Costas Loop Gain" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
   <si>
     <t>BPSK 300</t>
   </si>
@@ -92,13 +98,37 @@
   </si>
   <si>
     <t>adjust limits</t>
+  </si>
+  <si>
+    <t>QPSK 4800</t>
+  </si>
+  <si>
+    <t>Input Amplitude</t>
+  </si>
+  <si>
+    <t>Loop Filter Gain</t>
+  </si>
+  <si>
+    <t>NCO Amplitude</t>
+  </si>
+  <si>
+    <t>NCO Sample Rate</t>
+  </si>
+  <si>
+    <t>NCO Period</t>
+  </si>
+  <si>
+    <t>Loop Gain</t>
+  </si>
+  <si>
+    <t>Branch LPF Gain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,9 +290,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -300,7 +330,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -334,6 +364,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -368,9 +399,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -543,27 +575,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -577,7 +609,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -593,7 +625,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -609,7 +641,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -627,7 +659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -637,7 +669,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -673,8 +705,8 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:12">
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -690,7 +722,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -706,7 +738,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>8</v>
@@ -727,7 +759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -737,7 +769,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -773,10 +805,10 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -792,7 +824,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -811,7 +843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>8</v>
@@ -829,7 +861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>4</v>
@@ -839,7 +871,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
@@ -875,8 +907,8 @@
         <v>27.424608507342434</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:12">
+    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -892,7 +924,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -911,7 +943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>8</v>
@@ -932,7 +964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>4</v>
@@ -942,7 +974,7 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+    <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
@@ -978,8 +1010,8 @@
         <v>26.715779691033887</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="26" spans="1:12">
+    <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -995,7 +1027,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1011,7 +1043,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>8</v>
@@ -1032,7 +1064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>4</v>
@@ -1045,7 +1077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+    <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
@@ -1081,8 +1113,8 @@
         <v>28.416995678270762</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="32" spans="1:12">
+    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1098,7 +1130,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -1114,7 +1146,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>8</v>
@@ -1135,7 +1167,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>4</v>
@@ -1148,7 +1180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1216,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="38" spans="1:12">
+    <row r="37" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -1201,7 +1233,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -1217,7 +1249,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>8</v>
@@ -1235,7 +1267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>4</v>
@@ -1245,7 +1277,7 @@
       </c>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1">
+    <row r="42" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
@@ -1281,8 +1313,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="44" spans="1:12">
+    <row r="43" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -1298,7 +1330,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>6</v>
       </c>
@@ -1314,7 +1346,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" t="s">
         <v>8</v>
@@ -1332,7 +1364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" t="s">
         <v>4</v>
@@ -1342,7 +1374,7 @@
       </c>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1">
+    <row r="48" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>2</v>
       </c>
@@ -1378,8 +1410,8 @@
         <v>28.639387375039352</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="50" spans="1:12">
+    <row r="49" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -1395,7 +1427,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>6</v>
       </c>
@@ -1411,7 +1443,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" t="s">
         <v>8</v>
@@ -1432,7 +1464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" t="s">
         <v>4</v>
@@ -1442,7 +1474,7 @@
       </c>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1">
+    <row r="54" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>3</v>
       </c>
@@ -1478,8 +1510,8 @@
         <v>27.416995678270766</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="56" spans="1:12">
+    <row r="55" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
@@ -1495,7 +1527,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
@@ -1511,7 +1543,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" t="s">
         <v>8</v>
@@ -1532,7 +1564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" t="s">
         <v>4</v>
@@ -1545,7 +1577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" thickBot="1">
+    <row r="60" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>1</v>
       </c>
@@ -1579,6 +1611,103 @@
       <c r="J60" s="13">
         <f t="shared" ref="J60" si="12">LOG(H60*C60,2)</f>
         <v>26.319851423922206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>14400</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>15</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65" s="9"/>
+    </row>
+    <row r="66" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="14">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="C66" s="11">
+        <f>ROUND(POWER(2,$C$16)*B66, 0)</f>
+        <v>63</v>
+      </c>
+      <c r="D66" s="11">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="E66" s="11">
+        <f t="shared" ref="E66" si="13">ROUND(POWER(2,$E$4)*D66, 0)</f>
+        <v>1092</v>
+      </c>
+      <c r="F66" s="11">
+        <v>5</v>
+      </c>
+      <c r="G66" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="H66" s="11">
+        <f>ROUND(((F66*(1+G66)) * $B$20/$B$21)/B66, 0)</f>
+        <v>504415</v>
+      </c>
+      <c r="I66" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J66" s="13">
+        <f t="shared" ref="J66" si="14">LOG(H66*C66,2)</f>
+        <v>24.921531576267107</v>
       </c>
     </row>
   </sheetData>
@@ -1591,24 +1720,87 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>8191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <f>B2*B3*B4*B5*B6/B7</f>
+        <v>1799.7802734375</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37F14C9-16F9-A24E-85A6-C8900096E13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580DF894-F75F-5646-9D37-B64B79F14E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="40" windowWidth="16780" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1679,35 +1679,35 @@
         <v>21</v>
       </c>
       <c r="B66" s="14">
-        <v>6.0000000000000002E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="C66" s="11">
         <f>ROUND(POWER(2,$C$16)*B66, 0)</f>
-        <v>63</v>
+        <v>1049</v>
       </c>
       <c r="D66" s="11">
-        <v>3.3329999999999999E-2</v>
+        <v>0.25</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" ref="E66" si="13">ROUND(POWER(2,$E$4)*D66, 0)</f>
-        <v>1092</v>
+        <v>8192</v>
       </c>
       <c r="F66" s="11">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G66" s="12">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="H66" s="11">
         <f>ROUND(((F66*(1+G66)) * $B$20/$B$21)/B66, 0)</f>
-        <v>504415</v>
+        <v>68267</v>
       </c>
       <c r="I66" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J66" s="13">
         <f t="shared" ref="J66" si="14">LOG(H66*C66,2)</f>
-        <v>24.921531576267107</v>
+        <v>26.09369969602302</v>
       </c>
     </row>
   </sheetData>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580DF894-F75F-5646-9D37-B64B79F14E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="40" windowWidth="16780" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11985" yWindow="45" windowWidth="16785" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Costas Loop Gain" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -127,8 +121,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,9 +284,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -330,7 +324,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -364,7 +358,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -399,10 +392,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,27 +567,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -609,7 +601,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -625,7 +617,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -641,7 +633,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -659,7 +651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -669,7 +661,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -705,8 +697,8 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -722,7 +714,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -738,7 +730,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>8</v>
@@ -759,7 +751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -769,7 +761,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -805,10 +797,10 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -824,7 +816,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -843,7 +835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>8</v>
@@ -861,7 +853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>4</v>
@@ -871,7 +863,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
@@ -907,8 +899,8 @@
         <v>27.424608507342434</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -924,7 +916,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -943,7 +935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>8</v>
@@ -964,7 +956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>4</v>
@@ -974,7 +966,7 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
@@ -1010,8 +1002,8 @@
         <v>26.715779691033887</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -1027,7 +1019,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1043,7 +1035,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>8</v>
@@ -1064,7 +1056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>4</v>
@@ -1077,7 +1069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
@@ -1113,8 +1105,8 @@
         <v>28.416995678270762</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1122,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1138,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>8</v>
@@ -1167,7 +1159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>4</v>
@@ -1180,7 +1172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.75" thickBot="1">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -1216,8 +1208,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -1233,7 +1225,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -1249,7 +1241,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>8</v>
@@ -1267,7 +1259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>4</v>
@@ -1277,7 +1269,7 @@
       </c>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.75" thickBot="1">
       <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
@@ -1313,8 +1305,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1322,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45" s="6" t="s">
         <v>6</v>
       </c>
@@ -1346,7 +1338,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="A46" s="6"/>
       <c r="B46" t="s">
         <v>8</v>
@@ -1364,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47" s="6"/>
       <c r="B47" t="s">
         <v>4</v>
@@ -1374,7 +1366,7 @@
       </c>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.75" thickBot="1">
       <c r="A48" s="10" t="s">
         <v>2</v>
       </c>
@@ -1410,8 +1402,8 @@
         <v>28.639387375039352</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -1427,12 +1419,12 @@
       <c r="I50" s="4"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B51">
-        <v>14400</v>
+        <v>7200</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -1443,7 +1435,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12">
       <c r="A52" s="6"/>
       <c r="B52" t="s">
         <v>8</v>
@@ -1464,7 +1456,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12">
       <c r="A53" s="6"/>
       <c r="B53" t="s">
         <v>4</v>
@@ -1474,23 +1466,23 @@
       </c>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.75" thickBot="1">
       <c r="A54" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="11">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="C54" s="11">
         <f>ROUND(POWER(2,$C$10)*B54, 0)</f>
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="D54" s="11">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="E54" s="11">
         <f>ROUND(POWER(2,$E$4)*D54, 0)</f>
-        <v>983</v>
+        <v>3277</v>
       </c>
       <c r="F54" s="11">
         <v>25</v>
@@ -1499,7 +1491,7 @@
         <v>0.5</v>
       </c>
       <c r="H54" s="11">
-        <f>ROUND(((F54*(1+G54)) * $B$8/$B$9)/B54, 0)</f>
+        <f>ROUND(((F54*(1+G54)) * $B$50/$B$51)/B54, 0)</f>
         <v>1706667</v>
       </c>
       <c r="I54" s="11">
@@ -1507,11 +1499,11 @@
       </c>
       <c r="J54" s="13">
         <f t="shared" ref="J54" si="10">LOG(H54*C54,2)</f>
-        <v>27.416995678270766</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+        <v>28.416995678270762</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="56" spans="1:12">
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
@@ -1527,7 +1519,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
@@ -1543,7 +1535,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="A58" s="6"/>
       <c r="B58" t="s">
         <v>8</v>
@@ -1564,7 +1556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="A59" s="6"/>
       <c r="B59" t="s">
         <v>4</v>
@@ -1577,7 +1569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="15.75" thickBot="1">
       <c r="A60" s="10" t="s">
         <v>1</v>
       </c>
@@ -1613,8 +1605,8 @@
         <v>26.319851423922206</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="62" spans="1:12">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
@@ -1630,7 +1622,7 @@
       <c r="I62" s="4"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="A63" s="6" t="s">
         <v>6</v>
       </c>
@@ -1646,7 +1638,7 @@
       <c r="I63" s="7"/>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="A64" s="6"/>
       <c r="B64" t="s">
         <v>8</v>
@@ -1664,7 +1656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" s="6"/>
       <c r="B65" t="s">
         <v>4</v>
@@ -1674,7 +1666,7 @@
       </c>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="15.75" thickBot="1">
       <c r="A66" s="10" t="s">
         <v>21</v>
       </c>
@@ -1720,19 +1712,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1740,7 +1732,7 @@
         <v>8191</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1748,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1756,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1764,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1772,7 +1764,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1780,7 +1772,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1795,12 +1787,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
   <si>
     <t>BPSK 300</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Branch LPF Gain</t>
+  </si>
+  <si>
+    <t>QPSK 3600</t>
   </si>
 </sst>
 </file>
@@ -568,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1702,6 +1705,103 @@
         <v>26.09369969602302</v>
       </c>
     </row>
+    <row r="67" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="68" spans="1:10">
+      <c r="A68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>10800</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="8"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="6"/>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>15</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="6"/>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" s="9"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" s="14">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="C72" s="11">
+        <f>ROUND(POWER(2,$C$16)*B72, 0)</f>
+        <v>157</v>
+      </c>
+      <c r="D72" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" ref="E72" si="15">ROUND(POWER(2,$E$4)*D72, 0)</f>
+        <v>4915</v>
+      </c>
+      <c r="F72" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="G72" s="12">
+        <v>0</v>
+      </c>
+      <c r="H72" s="11">
+        <f>ROUND(((F72*(1+G72)) * $B$20/$B$21)/B72, 0)</f>
+        <v>318578</v>
+      </c>
+      <c r="I72" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J72" s="13">
+        <f t="shared" ref="J72" si="16">LOG(H72*C72,2)</f>
+        <v>25.575907865625492</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
@@ -1716,12 +1816,13 @@
   <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -1761,7 +1862,7 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>14400</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1778,7 +1879,7 @@
       </c>
       <c r="B9">
         <f>B2*B3*B4*B5*B6/B7</f>
-        <v>1799.7802734375</v>
+        <v>1349.835205078125</v>
       </c>
     </row>
   </sheetData>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE5F86C-B4CC-A243-8497-6BC1E3EB0C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="45" windowWidth="16785" windowHeight="14385"/>
+    <workbookView xWindow="7820" yWindow="40" windowWidth="20940" windowHeight="17000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Costas Loop Gain" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="31">
   <si>
     <t>BPSK 300</t>
   </si>
@@ -119,13 +125,16 @@
   </si>
   <si>
     <t>QPSK 3600</t>
+  </si>
+  <si>
+    <t>Phase Detector Gain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,9 +296,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +336,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -361,6 +370,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -395,9 +405,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -570,27 +581,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -604,7 +615,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -620,7 +631,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -636,7 +647,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -654,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -664,7 +675,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -700,8 +711,8 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:12">
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -717,7 +728,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -733,7 +744,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>8</v>
@@ -754,7 +765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -764,7 +775,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -800,10 +811,10 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -819,7 +830,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -838,7 +849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>8</v>
@@ -856,7 +867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>4</v>
@@ -866,7 +877,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
@@ -902,8 +913,8 @@
         <v>27.424608507342434</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:12">
+    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -919,7 +930,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -938,7 +949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>8</v>
@@ -959,7 +970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>4</v>
@@ -969,7 +980,7 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+    <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
@@ -1005,8 +1016,8 @@
         <v>26.715779691033887</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="26" spans="1:12">
+    <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +1033,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1038,7 +1049,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>8</v>
@@ -1059,7 +1070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>4</v>
@@ -1072,7 +1083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+    <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
@@ -1108,8 +1119,8 @@
         <v>28.416995678270762</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="32" spans="1:12">
+    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1125,7 +1136,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -1141,7 +1152,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>8</v>
@@ -1162,7 +1173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>4</v>
@@ -1175,7 +1186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -1211,8 +1222,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="38" spans="1:12">
+    <row r="37" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -1228,7 +1239,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -1244,7 +1255,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>8</v>
@@ -1262,7 +1273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>4</v>
@@ -1272,7 +1283,7 @@
       </c>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1">
+    <row r="42" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
@@ -1308,8 +1319,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="44" spans="1:12">
+    <row r="43" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -1325,7 +1336,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>6</v>
       </c>
@@ -1341,7 +1352,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" t="s">
         <v>8</v>
@@ -1359,7 +1370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" t="s">
         <v>4</v>
@@ -1369,7 +1380,7 @@
       </c>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1">
+    <row r="48" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>2</v>
       </c>
@@ -1405,8 +1416,8 @@
         <v>28.639387375039352</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="50" spans="1:12">
+    <row r="49" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -1422,7 +1433,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>6</v>
       </c>
@@ -1438,7 +1449,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" t="s">
         <v>8</v>
@@ -1459,7 +1470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" t="s">
         <v>4</v>
@@ -1469,7 +1480,7 @@
       </c>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1">
+    <row r="54" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1516,8 @@
         <v>28.416995678270762</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="56" spans="1:12">
+    <row r="55" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
@@ -1522,7 +1533,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
@@ -1538,7 +1549,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" t="s">
         <v>8</v>
@@ -1559,7 +1570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" t="s">
         <v>4</v>
@@ -1572,7 +1583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" thickBot="1">
+    <row r="60" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>1</v>
       </c>
@@ -1608,8 +1619,8 @@
         <v>26.319851423922206</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="62" spans="1:12">
+    <row r="61" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
@@ -1625,7 +1636,7 @@
       <c r="I62" s="4"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>6</v>
       </c>
@@ -1641,7 +1652,7 @@
       <c r="I63" s="7"/>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" t="s">
         <v>8</v>
@@ -1659,7 +1670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" t="s">
         <v>4</v>
@@ -1669,7 +1680,7 @@
       </c>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1">
+    <row r="66" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>21</v>
       </c>
@@ -1705,8 +1716,8 @@
         <v>26.09369969602302</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="68" spans="1:10">
+    <row r="67" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>5</v>
       </c>
@@ -1722,7 +1733,7 @@
       <c r="I68" s="4"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
@@ -1738,7 +1749,7 @@
       <c r="I69" s="7"/>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" t="s">
         <v>8</v>
@@ -1756,7 +1767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" t="s">
         <v>4</v>
@@ -1766,7 +1777,7 @@
       </c>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1">
+    <row r="72" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>29</v>
       </c>
@@ -1812,28 +1823,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2">
-        <v>8191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1841,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1849,37 +1860,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B6">
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>65536</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
-        <f>B2*B3*B4*B5*B6/B7</f>
-        <v>1349.835205078125</v>
+      <c r="B10">
+        <f>B2*B3*B4*B5*B6*B7/B8</f>
+        <v>460800</v>
       </c>
     </row>
   </sheetData>
@@ -1888,12 +1907,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE5F86C-B4CC-A243-8497-6BC1E3EB0C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="40" windowWidth="20940" windowHeight="17000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7815" yWindow="45" windowWidth="20940" windowHeight="16995"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Costas Loop Gain" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Modified Costas Loop" sheetId="4" r:id="rId1"/>
+    <sheet name="Traditional Costas Loop" sheetId="1" r:id="rId2"/>
+    <sheet name="Costas Loop Gain" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="31">
   <si>
     <t>BPSK 300</t>
   </si>
@@ -133,8 +128,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,9 +291,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -336,7 +331,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -370,7 +365,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -405,10 +399,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -581,27 +574,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -615,7 +608,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -631,7 +624,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -647,7 +640,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -665,7 +658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -675,7 +668,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -711,8 +704,8 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -728,7 +721,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -744,7 +737,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>8</v>
@@ -765,7 +758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -775,7 +768,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -811,10 +804,10 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -830,7 +823,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -849,7 +842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>8</v>
@@ -867,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>4</v>
@@ -877,7 +870,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
@@ -913,8 +906,8 @@
         <v>27.424608507342434</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -930,7 +923,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -949,7 +942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>8</v>
@@ -970,7 +963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>4</v>
@@ -980,7 +973,7 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
@@ -1016,8 +1009,8 @@
         <v>26.715779691033887</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -1033,7 +1026,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1042,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>8</v>
@@ -1070,7 +1063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>4</v>
@@ -1083,7 +1076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
@@ -1119,8 +1112,8 @@
         <v>28.416995678270762</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1129,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -1152,7 +1145,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>8</v>
@@ -1173,7 +1166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>4</v>
@@ -1186,7 +1179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.75" thickBot="1">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -1222,8 +1215,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -1239,7 +1232,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -1255,7 +1248,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>8</v>
@@ -1273,7 +1266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>4</v>
@@ -1283,7 +1276,7 @@
       </c>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.75" thickBot="1">
       <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
@@ -1319,8 +1312,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -1336,7 +1329,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45" s="6" t="s">
         <v>6</v>
       </c>
@@ -1352,7 +1345,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="A46" s="6"/>
       <c r="B46" t="s">
         <v>8</v>
@@ -1370,7 +1363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47" s="6"/>
       <c r="B47" t="s">
         <v>4</v>
@@ -1380,7 +1373,7 @@
       </c>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.75" thickBot="1">
       <c r="A48" s="10" t="s">
         <v>2</v>
       </c>
@@ -1416,8 +1409,8 @@
         <v>28.639387375039352</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -1433,12 +1426,12 @@
       <c r="I50" s="4"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B51">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -1449,7 +1442,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12">
       <c r="A52" s="6"/>
       <c r="B52" t="s">
         <v>8</v>
@@ -1470,7 +1463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12">
       <c r="A53" s="6"/>
       <c r="B53" t="s">
         <v>4</v>
@@ -1480,23 +1473,24 @@
       </c>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.75" thickBot="1">
       <c r="A54" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="11">
-        <v>2.0000000000000001E-4</v>
+        <f>D54/850</f>
+        <v>7.0270588235294123E-4</v>
       </c>
       <c r="C54" s="11">
         <f>ROUND(POWER(2,$C$10)*B54, 0)</f>
-        <v>210</v>
+        <v>737</v>
       </c>
       <c r="D54" s="11">
-        <v>0.1</v>
+        <v>0.59730000000000005</v>
       </c>
       <c r="E54" s="11">
         <f>ROUND(POWER(2,$E$4)*D54, 0)</f>
-        <v>3277</v>
+        <v>19572</v>
       </c>
       <c r="F54" s="11">
         <v>25</v>
@@ -1506,18 +1500,18 @@
       </c>
       <c r="H54" s="11">
         <f>ROUND(((F54*(1+G54)) * $B$50/$B$51)/B54, 0)</f>
-        <v>1706667</v>
+        <v>242871</v>
       </c>
       <c r="I54" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J54" s="13">
         <f t="shared" ref="J54" si="10">LOG(H54*C54,2)</f>
-        <v>28.416995678270762</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+        <v>27.415351518857953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="56" spans="1:12">
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
@@ -1533,7 +1527,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
@@ -1549,7 +1543,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="A58" s="6"/>
       <c r="B58" t="s">
         <v>8</v>
@@ -1570,7 +1564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="A59" s="6"/>
       <c r="B59" t="s">
         <v>4</v>
@@ -1583,7 +1577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="15.75" thickBot="1">
       <c r="A60" s="10" t="s">
         <v>1</v>
       </c>
@@ -1619,8 +1613,8 @@
         <v>26.319851423922206</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="62" spans="1:12">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1630,7 @@
       <c r="I62" s="4"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="A63" s="6" t="s">
         <v>6</v>
       </c>
@@ -1652,7 +1646,7 @@
       <c r="I63" s="7"/>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="A64" s="6"/>
       <c r="B64" t="s">
         <v>8</v>
@@ -1670,7 +1664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" s="6"/>
       <c r="B65" t="s">
         <v>4</v>
@@ -1680,7 +1674,7 @@
       </c>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="15.75" thickBot="1">
       <c r="A66" s="10" t="s">
         <v>21</v>
       </c>
@@ -1716,8 +1710,8 @@
         <v>26.09369969602302</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
         <v>5</v>
       </c>
@@ -1733,7 +1727,7 @@
       <c r="I68" s="4"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
@@ -1749,7 +1743,7 @@
       <c r="I69" s="7"/>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" s="6"/>
       <c r="B70" t="s">
         <v>8</v>
@@ -1767,7 +1761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" s="6"/>
       <c r="B71" t="s">
         <v>4</v>
@@ -1777,7 +1771,7 @@
       </c>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="15.75" thickBot="1">
       <c r="A72" s="10" t="s">
         <v>29</v>
       </c>
@@ -1823,20 +1817,1262 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>7200</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6"/>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C6" s="11">
+        <f>ROUND(POWER(2,$C$4)*B6, 0)</f>
+        <v>262</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="11">
+        <f>ROUND(POWER(2,$E$4)*D6, 0)</f>
+        <v>8192</v>
+      </c>
+      <c r="F6" s="11">
+        <v>25</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="11">
+        <f>ROUND(((F6*(1+G6)) * $B$2/$B$3)/B6, 0)</f>
+        <v>1365333</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J6" s="13">
+        <f>LOG(H6*C6,2)</f>
+        <v>28.414244433257871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>14400</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="6"/>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C12" s="11">
+        <f>ROUND(POWER(2,$C$10)*B12, 0)</f>
+        <v>262</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" ref="E12" si="0">ROUND(POWER(2,$E$4)*D12, 0)</f>
+        <v>8192</v>
+      </c>
+      <c r="F12" s="11">
+        <v>50</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="11">
+        <f>ROUND(((F12*(1+G12)) * $B$8/$B$9)/B12, 0)</f>
+        <v>1365333</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" ref="J12" si="1">LOG(H12*C12,2)</f>
+        <v>28.414244433257871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>14400</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="6"/>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C18" s="11">
+        <f>ROUND(POWER(2,$C$16)*B18, 0)</f>
+        <v>19</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" ref="E18" si="2">ROUND(POWER(2,$E$4)*D18, 0)</f>
+        <v>524</v>
+      </c>
+      <c r="F18" s="11">
+        <v>25</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="11">
+        <f>ROUND(((F18*(1+G18)) * $B$14/$B$15)/B18, 0)</f>
+        <v>9481481</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" ref="J18" si="3">LOG(H18*C18,2)</f>
+        <v>27.424608507342434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>14400</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="6"/>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="6"/>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="14">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="C24" s="11">
+        <f>ROUND(POWER(2,$C$16)*B24, 0)</f>
+        <v>33</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" ref="E24" si="4">ROUND(POWER(2,$E$4)*D24, 0)</f>
+        <v>655</v>
+      </c>
+      <c r="F24" s="11">
+        <v>13</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H24" s="11">
+        <f>ROUND(((F24*(1+G24)) * $B$20/$B$21)/B24, 0)</f>
+        <v>3339928</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J24" s="13">
+        <f t="shared" ref="J24" si="5">LOG(H24*C24,2)</f>
+        <v>26.715779691033887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>14400</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="6"/>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="L29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C30" s="11">
+        <f>ROUND(POWER(2,$C$10)*B30, 0)</f>
+        <v>210</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="E30" s="11">
+        <f>ROUND(POWER(2,$E$4)*D30, 0)</f>
+        <v>2949</v>
+      </c>
+      <c r="F30" s="11">
+        <v>50</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="11">
+        <f>ROUND(((F30*(1+G30)) * $B$8/$B$9)/B30, 0)</f>
+        <v>1706667</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J30" s="13">
+        <f t="shared" ref="J30" si="6">LOG(H30*C30,2)</f>
+        <v>28.416995678270762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>14400</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="6"/>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="6"/>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="L35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="C36" s="11">
+        <f>ROUND(POWER(2,$C$10)*B36, 0)</f>
+        <v>105</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="E36" s="11">
+        <f>ROUND(POWER(2,$E$4)*D36, 0)</f>
+        <v>983</v>
+      </c>
+      <c r="F36" s="11">
+        <v>50</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H36" s="11">
+        <f>ROUND(((F36*(1+G36)) * $B$8/$B$9)/B36, 0)</f>
+        <v>3413333</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J36" s="13">
+        <f t="shared" ref="J36" si="7">LOG(H36*C36,2)</f>
+        <v>28.416995255606221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="38" spans="1:12">
+      <c r="A38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>7200</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="6"/>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>15</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="6"/>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A42" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="C42" s="11">
+        <f>ROUND(POWER(2,$C$4)*B42, 0)</f>
+        <v>105</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E42" s="11">
+        <f>ROUND(POWER(2,$E$4)*D42, 0)</f>
+        <v>1638</v>
+      </c>
+      <c r="F42" s="11">
+        <v>25</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="11">
+        <f>ROUND(((F42*(1+G42)) * $B$2/$B$3)/B42, 0)</f>
+        <v>3413333</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J42" s="13">
+        <f>LOG(H42*C42,2)</f>
+        <v>28.416995255606221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:12">
+      <c r="A44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>14400</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="6"/>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>15</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="6"/>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A48" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C48" s="11">
+        <f>ROUND(POWER(2,$C$10)*B48, 0)</f>
+        <v>315</v>
+      </c>
+      <c r="D48" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="E48" s="11">
+        <f t="shared" ref="E48" si="8">ROUND(POWER(2,$E$4)*D48, 0)</f>
+        <v>7864</v>
+      </c>
+      <c r="F48" s="11">
+        <v>50</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H48" s="11">
+        <f>ROUND(((F48*(1+G48)) * $B$8/$B$9)/B48, 0)</f>
+        <v>1327407</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J48" s="13">
+        <f t="shared" ref="J48" si="9">LOG(H48*C48,2)</f>
+        <v>28.639387375039352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="50" spans="1:12">
+      <c r="A50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>7200</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="6"/>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>15</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="6"/>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A54" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C54" s="11">
+        <f>ROUND(POWER(2,$C$10)*B54, 0)</f>
+        <v>210</v>
+      </c>
+      <c r="D54" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E54" s="11">
+        <f>ROUND(POWER(2,$E$4)*D54, 0)</f>
+        <v>3277</v>
+      </c>
+      <c r="F54" s="11">
+        <v>25</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H54" s="11">
+        <f>ROUND(((F54*(1+G54)) * $B$50/$B$51)/B54, 0)</f>
+        <v>1706667</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J54" s="13">
+        <f t="shared" ref="J54" si="10">LOG(H54*C54,2)</f>
+        <v>28.416995678270762</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="56" spans="1:12">
+      <c r="A56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>14400</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="6"/>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>15</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="6"/>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="9"/>
+      <c r="L59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A60" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="14">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="C60" s="11">
+        <f>ROUND(POWER(2,$C$16)*B60, 0)</f>
+        <v>33</v>
+      </c>
+      <c r="D60" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E60" s="11">
+        <f t="shared" ref="E60" si="11">ROUND(POWER(2,$E$4)*D60, 0)</f>
+        <v>655</v>
+      </c>
+      <c r="F60" s="11">
+        <v>13</v>
+      </c>
+      <c r="G60" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="H60" s="11">
+        <f>ROUND(((F60*(1+G60)) * $B$20/$B$21)/B60, 0)</f>
+        <v>2538346</v>
+      </c>
+      <c r="I60" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J60" s="13">
+        <f t="shared" ref="J60" si="12">LOG(H60*C60,2)</f>
+        <v>26.319851423922206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="62" spans="1:12">
+      <c r="A62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>14400</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="6"/>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>15</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="6"/>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65" s="9"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A66" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="C66" s="11">
+        <f>ROUND(POWER(2,$C$16)*B66, 0)</f>
+        <v>1049</v>
+      </c>
+      <c r="D66" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E66" s="11">
+        <f t="shared" ref="E66" si="13">ROUND(POWER(2,$E$4)*D66, 0)</f>
+        <v>8192</v>
+      </c>
+      <c r="F66" s="11">
+        <v>15</v>
+      </c>
+      <c r="G66" s="12">
+        <v>0</v>
+      </c>
+      <c r="H66" s="11">
+        <f>ROUND(((F66*(1+G66)) * $B$20/$B$21)/B66, 0)</f>
+        <v>68267</v>
+      </c>
+      <c r="I66" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J66" s="13">
+        <f t="shared" ref="J66" si="14">LOG(H66*C66,2)</f>
+        <v>26.09369969602302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="68" spans="1:10">
+      <c r="A68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>10800</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="8"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="6"/>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>15</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="6"/>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" s="9"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" s="14">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="C72" s="11">
+        <f>ROUND(POWER(2,$C$16)*B72, 0)</f>
+        <v>157</v>
+      </c>
+      <c r="D72" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" ref="E72" si="15">ROUND(POWER(2,$E$4)*D72, 0)</f>
+        <v>4915</v>
+      </c>
+      <c r="F72" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="G72" s="12">
+        <v>0</v>
+      </c>
+      <c r="H72" s="11">
+        <f>ROUND(((F72*(1+G72)) * $B$20/$B$21)/B72, 0)</f>
+        <v>318578</v>
+      </c>
+      <c r="I72" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J72" s="13">
+        <f t="shared" ref="J72" si="16">LOG(H72*C72,2)</f>
+        <v>25.575907865625492</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1844,7 +3080,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1852,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1860,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1868,7 +3104,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1876,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1884,7 +3120,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1892,7 +3128,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1906,13 +3142,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1582,35 +1582,36 @@
         <v>1</v>
       </c>
       <c r="B60" s="14">
-        <v>3.1000000000000001E-5</v>
+        <f>D60/1150</f>
+        <v>2.3739130434782609E-4</v>
       </c>
       <c r="C60" s="11">
         <f>ROUND(POWER(2,$C$16)*B60, 0)</f>
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="D60" s="11">
-        <v>0.02</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" ref="E60" si="11">ROUND(POWER(2,$E$4)*D60, 0)</f>
-        <v>655</v>
+        <v>8946</v>
       </c>
       <c r="F60" s="11">
         <v>13</v>
       </c>
       <c r="G60" s="12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H60" s="11">
         <f>ROUND(((F60*(1+G60)) * $B$20/$B$21)/B60, 0)</f>
-        <v>2538346</v>
+        <v>498455</v>
       </c>
       <c r="I60" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J60" s="13">
         <f t="shared" ref="J60" si="12">LOG(H60*C60,2)</f>
-        <v>26.319851423922206</v>
+        <v>26.887105671996437</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1"/>
@@ -1776,35 +1777,36 @@
         <v>29</v>
       </c>
       <c r="B72" s="14">
-        <v>1.4999999999999999E-4</v>
+        <f>D72/1000</f>
+        <v>8.4999999999999995E-4</v>
       </c>
       <c r="C72" s="11">
         <f>ROUND(POWER(2,$C$16)*B72, 0)</f>
-        <v>157</v>
+        <v>891</v>
       </c>
       <c r="D72" s="11">
-        <v>0.15</v>
+        <v>0.85</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" ref="E72" si="15">ROUND(POWER(2,$E$4)*D72, 0)</f>
-        <v>4915</v>
+        <v>27853</v>
       </c>
       <c r="F72" s="11">
-        <v>10.5</v>
+        <v>50</v>
       </c>
       <c r="G72" s="12">
         <v>0</v>
       </c>
       <c r="H72" s="11">
         <f>ROUND(((F72*(1+G72)) * $B$20/$B$21)/B72, 0)</f>
-        <v>318578</v>
+        <v>267712</v>
       </c>
       <c r="I72" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J72" s="13">
         <f t="shared" ref="J72" si="16">LOG(H72*C72,2)</f>
-        <v>25.575907865625492</v>
+        <v>27.829603904165957</v>
       </c>
     </row>
   </sheetData>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1600,18 +1600,18 @@
         <v>13</v>
       </c>
       <c r="G60" s="12">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H60" s="11">
         <f>ROUND(((F60*(1+G60)) * $B$20/$B$21)/B60, 0)</f>
-        <v>498455</v>
+        <v>311534</v>
       </c>
       <c r="I60" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J60" s="13">
         <f t="shared" ref="J60" si="12">LOG(H60*C60,2)</f>
-        <v>26.887105671996437</v>
+        <v>26.209032030282614</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1"/>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Modified Costas Loop" sheetId="4" r:id="rId1"/>
     <sheet name="Traditional Costas Loop" sheetId="1" r:id="rId2"/>
     <sheet name="Costas Loop Gain" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="AttackDecay" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="38">
   <si>
     <t>BPSK 300</t>
   </si>
@@ -123,6 +123,27 @@
   </si>
   <si>
     <t>Phase Detector Gain</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Decay</t>
+  </si>
+  <si>
+    <t>Full Scale</t>
+  </si>
+  <si>
+    <t>Full Scale/Sec</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>Counts</t>
+  </si>
+  <si>
+    <t>Count/Sample</t>
   </si>
 </sst>
 </file>
@@ -577,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -683,7 +704,7 @@
         <v>0.25</v>
       </c>
       <c r="E6" s="11">
-        <f>ROUND(POWER(2,$E$4)*D6, 0)</f>
+        <f>ROUND(POWER(2,$E4)*D6, 0)</f>
         <v>8192</v>
       </c>
       <c r="F6" s="11">
@@ -693,7 +714,7 @@
         <v>0.5</v>
       </c>
       <c r="H6" s="11">
-        <f>ROUND(((F6*(1+G6)) * $B$2/$B$3)/B6, 0)</f>
+        <f>ROUND(((F6*(1+G6)) * $B2/$B3)/B6, 0)</f>
         <v>1365333</v>
       </c>
       <c r="I6" s="11">
@@ -783,7 +804,7 @@
         <v>0.25</v>
       </c>
       <c r="E12" s="11">
-        <f t="shared" ref="E12" si="0">ROUND(POWER(2,$E$4)*D12, 0)</f>
+        <f>ROUND(POWER(2,$E10)*D12, 0)</f>
         <v>8192</v>
       </c>
       <c r="F12" s="11">
@@ -793,14 +814,14 @@
         <v>0.5</v>
       </c>
       <c r="H12" s="11">
-        <f>ROUND(((F12*(1+G12)) * $B$8/$B$9)/B12, 0)</f>
+        <f>ROUND(((F12*(1+G12)) * $B8/$B9)/B12, 0)</f>
         <v>1365333</v>
       </c>
       <c r="I12" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J12" s="13">
-        <f t="shared" ref="J12" si="1">LOG(H12*C12,2)</f>
+        <f t="shared" ref="J12" si="0">LOG(H12*C12,2)</f>
         <v>28.414244433257871</v>
       </c>
     </row>
@@ -885,7 +906,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="E18" s="11">
-        <f t="shared" ref="E18" si="2">ROUND(POWER(2,$E$4)*D18, 0)</f>
+        <f>ROUND(POWER(2,$E16)*D18, 0)</f>
         <v>524</v>
       </c>
       <c r="F18" s="11">
@@ -895,14 +916,14 @@
         <v>0.5</v>
       </c>
       <c r="H18" s="11">
-        <f>ROUND(((F18*(1+G18)) * $B$14/$B$15)/B18, 0)</f>
+        <f>ROUND(((F18*(1+G18)) * $B14/$B15)/B18, 0)</f>
         <v>9481481</v>
       </c>
       <c r="I18" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J18" s="13">
-        <f t="shared" ref="J18" si="3">LOG(H18*C18,2)</f>
+        <f t="shared" ref="J18" si="1">LOG(H18*C18,2)</f>
         <v>27.424608507342434</v>
       </c>
     </row>
@@ -988,7 +1009,7 @@
         <v>0.02</v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" ref="E24" si="4">ROUND(POWER(2,$E$4)*D24, 0)</f>
+        <f>ROUND(POWER(2,$E22)*D24, 0)</f>
         <v>655</v>
       </c>
       <c r="F24" s="11">
@@ -998,14 +1019,14 @@
         <v>0.75</v>
       </c>
       <c r="H24" s="11">
-        <f>ROUND(((F24*(1+G24)) * $B$20/$B$21)/B24, 0)</f>
+        <f>ROUND(((F24*(1+G24)) * $B20/$B21)/B24, 0)</f>
         <v>3339928</v>
       </c>
       <c r="I24" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J24" s="13">
-        <f t="shared" ref="J24" si="5">LOG(H24*C24,2)</f>
+        <f t="shared" ref="J24" si="2">LOG(H24*C24,2)</f>
         <v>26.715779691033887</v>
       </c>
     </row>
@@ -1091,7 +1112,7 @@
         <v>0.09</v>
       </c>
       <c r="E30" s="11">
-        <f>ROUND(POWER(2,$E$4)*D30, 0)</f>
+        <f>ROUND(POWER(2,$E28)*D30, 0)</f>
         <v>2949</v>
       </c>
       <c r="F30" s="11">
@@ -1101,14 +1122,14 @@
         <v>0.5</v>
       </c>
       <c r="H30" s="11">
-        <f>ROUND(((F30*(1+G30)) * $B$8/$B$9)/B30, 0)</f>
+        <f>ROUND(((F30*(1+G30)) * $B26/$B27)/B30, 0)</f>
         <v>1706667</v>
       </c>
       <c r="I30" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J30" s="13">
-        <f t="shared" ref="J30" si="6">LOG(H30*C30,2)</f>
+        <f t="shared" ref="J30" si="3">LOG(H30*C30,2)</f>
         <v>28.416995678270762</v>
       </c>
     </row>
@@ -1194,7 +1215,7 @@
         <v>0.03</v>
       </c>
       <c r="E36" s="11">
-        <f>ROUND(POWER(2,$E$4)*D36, 0)</f>
+        <f>ROUND(POWER(2,$E34)*D36, 0)</f>
         <v>983</v>
       </c>
       <c r="F36" s="11">
@@ -1204,14 +1225,14 @@
         <v>0.5</v>
       </c>
       <c r="H36" s="11">
-        <f>ROUND(((F36*(1+G36)) * $B$8/$B$9)/B36, 0)</f>
+        <f>ROUND(((F36*(1+G36)) * $B32/$B33)/B36, 0)</f>
         <v>3413333</v>
       </c>
       <c r="I36" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J36" s="13">
-        <f t="shared" ref="J36" si="7">LOG(H36*C36,2)</f>
+        <f t="shared" ref="J36" si="4">LOG(H36*C36,2)</f>
         <v>28.416995255606221</v>
       </c>
     </row>
@@ -1291,7 +1312,7 @@
         <v>0.05</v>
       </c>
       <c r="E42" s="11">
-        <f>ROUND(POWER(2,$E$4)*D42, 0)</f>
+        <f>ROUND(POWER(2,$E40)*D42, 0)</f>
         <v>1638</v>
       </c>
       <c r="F42" s="11">
@@ -1301,7 +1322,7 @@
         <v>0.5</v>
       </c>
       <c r="H42" s="11">
-        <f>ROUND(((F42*(1+G42)) * $B$2/$B$3)/B42, 0)</f>
+        <f>ROUND(((F42*(1+G42)) * $B38/$B39)/B42, 0)</f>
         <v>3413333</v>
       </c>
       <c r="I42" s="11">
@@ -1388,7 +1409,7 @@
         <v>0.24</v>
       </c>
       <c r="E48" s="11">
-        <f t="shared" ref="E48" si="8">ROUND(POWER(2,$E$4)*D48, 0)</f>
+        <f>ROUND(POWER(2,$E46)*D48, 0)</f>
         <v>7864</v>
       </c>
       <c r="F48" s="11">
@@ -1398,14 +1419,14 @@
         <v>0.75</v>
       </c>
       <c r="H48" s="11">
-        <f>ROUND(((F48*(1+G48)) * $B$8/$B$9)/B48, 0)</f>
+        <f>ROUND(((F48*(1+G48)) * $B44/$B45)/B48, 0)</f>
         <v>1327407</v>
       </c>
       <c r="I48" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J48" s="13">
-        <f t="shared" ref="J48" si="9">LOG(H48*C48,2)</f>
+        <f t="shared" ref="J48" si="5">LOG(H48*C48,2)</f>
         <v>28.639387375039352</v>
       </c>
     </row>
@@ -1489,7 +1510,7 @@
         <v>0.59730000000000005</v>
       </c>
       <c r="E54" s="11">
-        <f>ROUND(POWER(2,$E$4)*D54, 0)</f>
+        <f>ROUND(POWER(2,$E52)*D54, 0)</f>
         <v>19572</v>
       </c>
       <c r="F54" s="11">
@@ -1499,14 +1520,14 @@
         <v>0.5</v>
       </c>
       <c r="H54" s="11">
-        <f>ROUND(((F54*(1+G54)) * $B$50/$B$51)/B54, 0)</f>
+        <f>ROUND(((F54*(1+G54)) * $B50/$B51)/B54, 0)</f>
         <v>242871</v>
       </c>
       <c r="I54" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J54" s="13">
-        <f t="shared" ref="J54" si="10">LOG(H54*C54,2)</f>
+        <f t="shared" ref="J54" si="6">LOG(H54*C54,2)</f>
         <v>27.415351518857953</v>
       </c>
     </row>
@@ -1582,19 +1603,19 @@
         <v>1</v>
       </c>
       <c r="B60" s="14">
-        <f>D60/1150</f>
-        <v>2.3739130434782609E-4</v>
+        <f>D60/2000</f>
+        <v>1E-4</v>
       </c>
       <c r="C60" s="11">
-        <f>ROUND(POWER(2,$C$16)*B60, 0)</f>
-        <v>249</v>
+        <f>ROUND(POWER(2,$C58)*B60, 0)</f>
+        <v>105</v>
       </c>
       <c r="D60" s="11">
-        <v>0.27300000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="E60" s="11">
-        <f t="shared" ref="E60" si="11">ROUND(POWER(2,$E$4)*D60, 0)</f>
-        <v>8946</v>
+        <f>ROUND(POWER(2,$E58)*D60, 0)</f>
+        <v>6554</v>
       </c>
       <c r="F60" s="11">
         <v>13</v>
@@ -1603,15 +1624,15 @@
         <v>0.25</v>
       </c>
       <c r="H60" s="11">
-        <f>ROUND(((F60*(1+G60)) * $B$20/$B$21)/B60, 0)</f>
-        <v>311534</v>
+        <f>ROUND(((F60*(1+G60)) * $B56/$B57)/B60, 0)</f>
+        <v>739556</v>
       </c>
       <c r="I60" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J60" s="13">
-        <f t="shared" ref="J60" si="12">LOG(H60*C60,2)</f>
-        <v>26.209032030282614</v>
+        <f t="shared" ref="J60" si="7">LOG(H60*C60,2)</f>
+        <v>26.210545386030962</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1"/>
@@ -1690,7 +1711,7 @@
         <v>0.25</v>
       </c>
       <c r="E66" s="11">
-        <f t="shared" ref="E66" si="13">ROUND(POWER(2,$E$4)*D66, 0)</f>
+        <f>ROUND(POWER(2,$E64)*D66, 0)</f>
         <v>8192</v>
       </c>
       <c r="F66" s="11">
@@ -1700,14 +1721,14 @@
         <v>0</v>
       </c>
       <c r="H66" s="11">
-        <f>ROUND(((F66*(1+G66)) * $B$20/$B$21)/B66, 0)</f>
+        <f>ROUND(((F66*(1+G66)) * $B62/$B63)/B66, 0)</f>
         <v>68267</v>
       </c>
       <c r="I66" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J66" s="13">
-        <f t="shared" ref="J66" si="14">LOG(H66*C66,2)</f>
+        <f t="shared" ref="J66" si="8">LOG(H66*C66,2)</f>
         <v>26.09369969602302</v>
       </c>
     </row>
@@ -1788,7 +1809,7 @@
         <v>0.85</v>
       </c>
       <c r="E72" s="11">
-        <f t="shared" ref="E72" si="15">ROUND(POWER(2,$E$4)*D72, 0)</f>
+        <f>ROUND(POWER(2,$E70)*D72, 0)</f>
         <v>27853</v>
       </c>
       <c r="F72" s="11">
@@ -1798,15 +1819,15 @@
         <v>0</v>
       </c>
       <c r="H72" s="11">
-        <f>ROUND(((F72*(1+G72)) * $B$20/$B$21)/B72, 0)</f>
-        <v>267712</v>
+        <f>ROUND(((F72*(1+G72)) * $B68/$B69)/B72, 0)</f>
+        <v>356950</v>
       </c>
       <c r="I72" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J72" s="13">
-        <f t="shared" ref="J72" si="16">LOG(H72*C72,2)</f>
-        <v>27.829603904165957</v>
+        <f t="shared" ref="J72" si="9">LOG(H72*C72,2)</f>
+        <v>28.244644097933083</v>
       </c>
     </row>
   </sheetData>
@@ -3146,12 +3167,75 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <f>B2*B5/B4</f>
+        <v>568.88888888888891</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <f>B3*B5/B4</f>
+        <v>56.888888888888886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>28800</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>32768</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -599,7 +599,7 @@
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1603,7 +1603,6 @@
         <v>1</v>
       </c>
       <c r="B60" s="14">
-        <f>D60/2000</f>
         <v>1E-4</v>
       </c>
       <c r="C60" s="11">
@@ -1708,11 +1707,11 @@
         <v>1049</v>
       </c>
       <c r="D66" s="11">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="E66" s="11">
         <f>ROUND(POWER(2,$E64)*D66, 0)</f>
-        <v>8192</v>
+        <v>9830</v>
       </c>
       <c r="F66" s="11">
         <v>15</v>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1499,36 +1499,36 @@
         <v>3</v>
       </c>
       <c r="B54" s="11">
-        <f>D54/850</f>
-        <v>7.0270588235294123E-4</v>
+        <f>D54/2000</f>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="C54" s="11">
         <f>ROUND(POWER(2,$C$10)*B54, 0)</f>
-        <v>737</v>
+        <v>157</v>
       </c>
       <c r="D54" s="11">
-        <v>0.59730000000000005</v>
+        <v>0.3</v>
       </c>
       <c r="E54" s="11">
         <f>ROUND(POWER(2,$E52)*D54, 0)</f>
-        <v>19572</v>
+        <v>9830</v>
       </c>
       <c r="F54" s="11">
         <v>25</v>
       </c>
       <c r="G54" s="12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H54" s="11">
         <f>ROUND(((F54*(1+G54)) * $B50/$B51)/B54, 0)</f>
-        <v>242871</v>
+        <v>948148</v>
       </c>
       <c r="I54" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J54" s="13">
         <f t="shared" ref="J54" si="6">LOG(H54*C54,2)</f>
-        <v>27.415351518857953</v>
+        <v>27.149373495743855</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" thickBot="1"/>
@@ -1798,35 +1798,35 @@
       </c>
       <c r="B72" s="14">
         <f>D72/1000</f>
-        <v>8.4999999999999995E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="C72" s="11">
         <f>ROUND(POWER(2,$C$16)*B72, 0)</f>
-        <v>891</v>
+        <v>210</v>
       </c>
       <c r="D72" s="11">
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
       <c r="E72" s="11">
         <f>ROUND(POWER(2,$E70)*D72, 0)</f>
-        <v>27853</v>
+        <v>6554</v>
       </c>
       <c r="F72" s="11">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G72" s="12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H72" s="11">
         <f>ROUND(((F72*(1+G72)) * $B68/$B69)/B72, 0)</f>
-        <v>356950</v>
+        <v>948148</v>
       </c>
       <c r="I72" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J72" s="13">
         <f t="shared" ref="J72" si="9">LOG(H72*C72,2)</f>
-        <v>28.244644097933083</v>
+        <v>27.568998264518353</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3169,7 @@
   <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3184,14 +3184,14 @@
         <v>31</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
       </c>
       <c r="D2">
         <f>B2*B5/B4</f>
-        <v>568.88888888888891</v>
+        <v>7585.1851851851852</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="D3">
         <f>B3*B5/B4</f>
-        <v>56.888888888888886</v>
+        <v>75.851851851851848</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3217,7 +3217,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>28800</v>
+        <v>21600</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -599,7 +599,7 @@
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1753,7 +1753,7 @@
         <v>6</v>
       </c>
       <c r="B69">
-        <v>10800</v>
+        <v>14400</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -1797,12 +1797,12 @@
         <v>29</v>
       </c>
       <c r="B72" s="14">
-        <f>D72/1000</f>
-        <v>2.0000000000000001E-4</v>
+        <f>D72/500</f>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C72" s="11">
         <f>ROUND(POWER(2,$C$16)*B72, 0)</f>
-        <v>210</v>
+        <v>419</v>
       </c>
       <c r="D72" s="11">
         <v>0.2</v>
@@ -1819,14 +1819,14 @@
       </c>
       <c r="H72" s="11">
         <f>ROUND(((F72*(1+G72)) * $B68/$B69)/B72, 0)</f>
-        <v>948148</v>
+        <v>355556</v>
       </c>
       <c r="I72" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J72" s="13">
         <f t="shared" ref="J72" si="9">LOG(H72*C72,2)</f>
-        <v>27.568998264518353</v>
+        <v>27.150523710061524</v>
       </c>
     </row>
   </sheetData>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -599,7 +599,7 @@
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1798,18 +1798,18 @@
       </c>
       <c r="B72" s="14">
         <f>D72/500</f>
-        <v>4.0000000000000002E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="C72" s="11">
         <f>ROUND(POWER(2,$C$16)*B72, 0)</f>
-        <v>419</v>
+        <v>839</v>
       </c>
       <c r="D72" s="11">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E72" s="11">
         <f>ROUND(POWER(2,$E70)*D72, 0)</f>
-        <v>6554</v>
+        <v>13107</v>
       </c>
       <c r="F72" s="11">
         <v>25</v>
@@ -1819,14 +1819,14 @@
       </c>
       <c r="H72" s="11">
         <f>ROUND(((F72*(1+G72)) * $B68/$B69)/B72, 0)</f>
-        <v>355556</v>
+        <v>177778</v>
       </c>
       <c r="I72" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J72" s="13">
         <f t="shared" ref="J72" si="9">LOG(H72*C72,2)</f>
-        <v>27.150523710061524</v>
+        <v>27.152244276801998</v>
       </c>
     </row>
   </sheetData>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8280F600-33BE-E24D-9127-BF4D2051A7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7815" yWindow="45" windowWidth="20940" windowHeight="16995"/>
+    <workbookView xWindow="7820" yWindow="40" windowWidth="20940" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modified Costas Loop" sheetId="4" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Costas Loop Gain" sheetId="2" r:id="rId3"/>
     <sheet name="AttackDecay" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -149,8 +155,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,9 +318,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -352,7 +358,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -386,6 +392,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -420,9 +427,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -595,27 +603,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -629,7 +637,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -645,7 +653,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -661,7 +669,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -679,7 +687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -689,7 +697,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -725,8 +733,8 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:12">
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -742,7 +750,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -758,7 +766,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>8</v>
@@ -779,7 +787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -789,7 +797,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -825,10 +833,10 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -844,7 +852,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -863,7 +871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>8</v>
@@ -881,7 +889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>4</v>
@@ -891,7 +899,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
@@ -927,8 +935,8 @@
         <v>27.424608507342434</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:12">
+    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -944,7 +952,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -963,7 +971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>8</v>
@@ -984,7 +992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>4</v>
@@ -994,7 +1002,7 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+    <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
@@ -1030,8 +1038,8 @@
         <v>26.715779691033887</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="26" spans="1:12">
+    <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -1047,7 +1055,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1063,7 +1071,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>8</v>
@@ -1084,7 +1092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>4</v>
@@ -1097,7 +1105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+    <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
@@ -1133,8 +1141,8 @@
         <v>28.416995678270762</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="32" spans="1:12">
+    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1158,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -1166,7 +1174,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>8</v>
@@ -1187,7 +1195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>4</v>
@@ -1200,7 +1208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -1236,8 +1244,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="38" spans="1:12">
+    <row r="37" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -1253,7 +1261,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -1269,7 +1277,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>8</v>
@@ -1287,7 +1295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>4</v>
@@ -1297,7 +1305,7 @@
       </c>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1">
+    <row r="42" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
@@ -1333,8 +1341,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="44" spans="1:12">
+    <row r="43" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -1350,7 +1358,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>6</v>
       </c>
@@ -1366,7 +1374,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" t="s">
         <v>8</v>
@@ -1384,7 +1392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" t="s">
         <v>4</v>
@@ -1394,7 +1402,7 @@
       </c>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1">
+    <row r="48" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>2</v>
       </c>
@@ -1430,8 +1438,8 @@
         <v>28.639387375039352</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="50" spans="1:12">
+    <row r="49" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -1447,7 +1455,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>6</v>
       </c>
@@ -1463,7 +1471,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" t="s">
         <v>8</v>
@@ -1484,7 +1492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" t="s">
         <v>4</v>
@@ -1494,7 +1502,7 @@
       </c>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1">
+    <row r="54" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>3</v>
       </c>
@@ -1531,8 +1539,8 @@
         <v>27.149373495743855</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="56" spans="1:12">
+    <row r="55" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
@@ -1548,7 +1556,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
@@ -1564,7 +1572,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" t="s">
         <v>8</v>
@@ -1585,7 +1593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" t="s">
         <v>4</v>
@@ -1598,7 +1606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" thickBot="1">
+    <row r="60" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>1</v>
       </c>
@@ -1634,8 +1642,8 @@
         <v>26.210545386030962</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="62" spans="1:12">
+    <row r="61" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
@@ -1651,7 +1659,7 @@
       <c r="I62" s="4"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>6</v>
       </c>
@@ -1667,7 +1675,7 @@
       <c r="I63" s="7"/>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" t="s">
         <v>8</v>
@@ -1685,7 +1693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" t="s">
         <v>4</v>
@@ -1695,7 +1703,7 @@
       </c>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1">
+    <row r="66" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>21</v>
       </c>
@@ -1731,8 +1739,8 @@
         <v>26.09369969602302</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="68" spans="1:10">
+    <row r="67" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>5</v>
       </c>
@@ -1748,7 +1756,7 @@
       <c r="I68" s="4"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
@@ -1764,7 +1772,7 @@
       <c r="I69" s="7"/>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" t="s">
         <v>8</v>
@@ -1782,7 +1790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" t="s">
         <v>4</v>
@@ -1792,41 +1800,41 @@
       </c>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1">
+    <row r="72" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B72" s="14">
         <f>D72/500</f>
-        <v>8.0000000000000004E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="C72" s="11">
         <f>ROUND(POWER(2,$C$16)*B72, 0)</f>
-        <v>839</v>
+        <v>629</v>
       </c>
       <c r="D72" s="11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E72" s="11">
         <f>ROUND(POWER(2,$E70)*D72, 0)</f>
-        <v>13107</v>
+        <v>9830</v>
       </c>
       <c r="F72" s="11">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G72" s="12">
         <v>0.25</v>
       </c>
       <c r="H72" s="11">
         <f>ROUND(((F72*(1+G72)) * $B68/$B69)/B72, 0)</f>
-        <v>177778</v>
+        <v>123259</v>
       </c>
       <c r="I72" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J72" s="13">
         <f t="shared" ref="J72" si="9">LOG(H72*C72,2)</f>
-        <v>27.152244276801998</v>
+        <v>26.208249673001003</v>
       </c>
     </row>
   </sheetData>
@@ -1839,27 +1847,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -1873,7 +1881,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1889,7 +1897,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1905,7 +1913,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -1923,7 +1931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -1933,7 +1941,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -1969,8 +1977,8 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:12">
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1986,7 +1994,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -2002,7 +2010,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>8</v>
@@ -2023,7 +2031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -2033,7 +2041,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -2069,10 +2077,10 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -2088,7 +2096,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -2107,7 +2115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>8</v>
@@ -2125,7 +2133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>4</v>
@@ -2135,7 +2143,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
@@ -2171,8 +2179,8 @@
         <v>27.424608507342434</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:12">
+    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -2188,7 +2196,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2207,7 +2215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>8</v>
@@ -2228,7 +2236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>4</v>
@@ -2238,7 +2246,7 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+    <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
@@ -2274,8 +2282,8 @@
         <v>26.715779691033887</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="26" spans="1:12">
+    <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -2291,7 +2299,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2307,7 +2315,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>8</v>
@@ -2328,7 +2336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>4</v>
@@ -2341,7 +2349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+    <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
@@ -2377,8 +2385,8 @@
         <v>28.416995678270762</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="32" spans="1:12">
+    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -2394,7 +2402,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2410,7 +2418,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>8</v>
@@ -2431,7 +2439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>4</v>
@@ -2444,7 +2452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -2480,8 +2488,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="38" spans="1:12">
+    <row r="37" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -2497,7 +2505,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2513,7 +2521,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>8</v>
@@ -2531,7 +2539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>4</v>
@@ -2541,7 +2549,7 @@
       </c>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1">
+    <row r="42" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
@@ -2577,8 +2585,8 @@
         <v>28.416995255606221</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="44" spans="1:12">
+    <row r="43" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -2594,7 +2602,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>6</v>
       </c>
@@ -2610,7 +2618,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" t="s">
         <v>8</v>
@@ -2628,7 +2636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" t="s">
         <v>4</v>
@@ -2638,7 +2646,7 @@
       </c>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1">
+    <row r="48" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>2</v>
       </c>
@@ -2674,8 +2682,8 @@
         <v>28.639387375039352</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="50" spans="1:12">
+    <row r="49" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -2691,7 +2699,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>6</v>
       </c>
@@ -2707,7 +2715,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" t="s">
         <v>8</v>
@@ -2728,7 +2736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" t="s">
         <v>4</v>
@@ -2738,7 +2746,7 @@
       </c>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1">
+    <row r="54" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>3</v>
       </c>
@@ -2774,8 +2782,8 @@
         <v>28.416995678270762</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="56" spans="1:12">
+    <row r="55" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
@@ -2791,7 +2799,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
@@ -2807,7 +2815,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" t="s">
         <v>8</v>
@@ -2828,7 +2836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" t="s">
         <v>4</v>
@@ -2841,7 +2849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" thickBot="1">
+    <row r="60" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>1</v>
       </c>
@@ -2877,8 +2885,8 @@
         <v>26.319851423922206</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="62" spans="1:12">
+    <row r="61" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
@@ -2894,7 +2902,7 @@
       <c r="I62" s="4"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>6</v>
       </c>
@@ -2910,7 +2918,7 @@
       <c r="I63" s="7"/>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" t="s">
         <v>8</v>
@@ -2928,7 +2936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" t="s">
         <v>4</v>
@@ -2938,7 +2946,7 @@
       </c>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1">
+    <row r="66" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>21</v>
       </c>
@@ -2974,8 +2982,8 @@
         <v>26.09369969602302</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="68" spans="1:10">
+    <row r="67" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>5</v>
       </c>
@@ -2991,7 +2999,7 @@
       <c r="I68" s="4"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
@@ -3007,7 +3015,7 @@
       <c r="I69" s="7"/>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" t="s">
         <v>8</v>
@@ -3025,7 +3033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" t="s">
         <v>4</v>
@@ -3035,7 +3043,7 @@
       </c>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1">
+    <row r="72" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>29</v>
       </c>
@@ -3081,20 +3089,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -3102,7 +3110,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3110,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -3118,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -3126,7 +3134,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -3134,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3142,7 +3150,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -3150,7 +3158,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3165,21 +3173,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3197,7 +3205,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3212,7 +3220,7 @@
         <v>75.851851851851848</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3223,7 +3231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8280F600-33BE-E24D-9127-BF4D2051A7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53E9338-B577-B249-BFF8-DC6CF1ED198F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="40" windowWidth="20940" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1805,19 +1805,19 @@
         <v>29</v>
       </c>
       <c r="B72" s="14">
-        <f>D72/500</f>
-        <v>5.9999999999999995E-4</v>
+        <f>D72/1000</f>
+        <v>3.5E-4</v>
       </c>
       <c r="C72" s="11">
         <f>ROUND(POWER(2,$C$16)*B72, 0)</f>
-        <v>629</v>
+        <v>367</v>
       </c>
       <c r="D72" s="11">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="E72" s="11">
         <f>ROUND(POWER(2,$E70)*D72, 0)</f>
-        <v>9830</v>
+        <v>11469</v>
       </c>
       <c r="F72" s="11">
         <v>13</v>
@@ -1827,14 +1827,14 @@
       </c>
       <c r="H72" s="11">
         <f>ROUND(((F72*(1+G72)) * $B68/$B69)/B72, 0)</f>
-        <v>123259</v>
+        <v>211302</v>
       </c>
       <c r="I72" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J72" s="13">
         <f t="shared" ref="J72" si="9">LOG(H72*C72,2)</f>
-        <v>26.208249673001003</v>
+        <v>26.208583149907476</v>
       </c>
     </row>
   </sheetData>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1258,7 +1258,7 @@
         <v>6</v>
       </c>
       <c r="B39">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1302,35 +1302,36 @@
         <v>0</v>
       </c>
       <c r="B42" s="11">
-        <v>1E-4</v>
+        <f>D42/1000</f>
+        <v>1.1999999999999999E-4</v>
       </c>
       <c r="C42" s="11">
         <f>ROUND(POWER(2,$C$4)*B42, 0)</f>
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D42" s="11">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="E42" s="11">
         <f>ROUND(POWER(2,$E40)*D42, 0)</f>
-        <v>1638</v>
+        <v>3932</v>
       </c>
       <c r="F42" s="11">
         <v>25</v>
       </c>
       <c r="G42" s="12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H42" s="11">
         <f>ROUND(((F42*(1+G42)) * $B38/$B39)/B42, 0)</f>
-        <v>3413333</v>
+        <v>1185185</v>
       </c>
       <c r="I42" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J42" s="13">
         <f>LOG(H42*C42,2)</f>
-        <v>28.416995255606221</v>
+        <v>27.153960765239503</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1"/>
@@ -3085,7 +3086,7 @@
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3115,7 +3116,7 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3123,7 +3124,7 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3156,7 +3157,7 @@
       </c>
       <c r="B10">
         <f>B2*B3*B4*B5*B6*B7/B8</f>
-        <v>460800</v>
+        <v>7200</v>
       </c>
     </row>
   </sheetData>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7815" yWindow="45" windowWidth="20940" windowHeight="16995" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="7815" yWindow="45" windowWidth="20940" windowHeight="16995"/>
   </bookViews>
   <sheets>
     <sheet name="Modified Costas Loop" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="39">
   <si>
     <t>BPSK 300</t>
   </si>
@@ -600,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1691,7 +1691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:12">
       <c r="A65" s="6"/>
       <c r="B65" t="s">
         <v>4</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1">
+    <row r="66" spans="1:12" ht="15.75" thickBot="1">
       <c r="A66" s="10" t="s">
         <v>21</v>
       </c>
@@ -1737,8 +1737,8 @@
         <v>26.09369969602302</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="68" spans="1:10">
+    <row r="67" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
         <v>5</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="I68" s="4"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:12">
       <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="I69" s="7"/>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:12">
       <c r="A70" s="6"/>
       <c r="B70" t="s">
         <v>8</v>
@@ -1788,7 +1788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:12">
       <c r="A71" s="6"/>
       <c r="B71" t="s">
         <v>4</v>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1">
+    <row r="72" spans="1:12" ht="15.75" thickBot="1">
       <c r="A72" s="10" t="s">
         <v>29</v>
       </c>
@@ -1833,6 +1833,109 @@
       <c r="J72" s="13">
         <f t="shared" ref="J72" si="9">LOG(H72*C72,2)</f>
         <v>27.152244276801998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:12">
+      <c r="A74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>7200</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="8"/>
+      <c r="L75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="6"/>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>15</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="6"/>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" s="9"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A78" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="14">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="C78" s="11">
+        <f>ROUND(POWER(2,$C$16)*B78, 0)</f>
+        <v>33</v>
+      </c>
+      <c r="D78" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E78" s="11">
+        <f>ROUND(POWER(2,$E76)*D78, 0)</f>
+        <v>655</v>
+      </c>
+      <c r="F78" s="11">
+        <v>13</v>
+      </c>
+      <c r="G78" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H78" s="11">
+        <f>ROUND(((F78*(1+G78)) * $B74/$B75)/B78, 0)</f>
+        <v>6679857</v>
+      </c>
+      <c r="I78" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J78" s="13">
+        <f t="shared" ref="J78" si="10">LOG(H78*C78,2)</f>
+        <v>27.715779907010837</v>
       </c>
     </row>
   </sheetData>
@@ -3249,7 +3352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="39">
   <si>
     <t>BPSK 300</t>
   </si>
@@ -600,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -829,1113 +829,809 @@
         <v>28.414244433257871</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+    <row r="13" spans="1:12">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3">
         <v>65536</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="6" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>14400</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="L15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="6"/>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="6"/>
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="11">
-        <v>1.8E-5</v>
-      </c>
-      <c r="C18" s="11">
-        <f>ROUND(POWER(2,$C$16)*B18, 0)</f>
-        <v>19</v>
-      </c>
-      <c r="D18" s="11">
-        <v>1.6E-2</v>
-      </c>
-      <c r="E18" s="11">
-        <f>ROUND(POWER(2,$E16)*D18, 0)</f>
-        <v>524</v>
-      </c>
-      <c r="F18" s="11">
-        <v>25</v>
-      </c>
-      <c r="G18" s="12">
+      <c r="J18" s="9"/>
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C19" s="11">
+        <f>ROUND(POWER(2,$C$10)*B19, 0)</f>
+        <v>210</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="E19" s="11">
+        <f>ROUND(POWER(2,$E17)*D19, 0)</f>
+        <v>2949</v>
+      </c>
+      <c r="F19" s="11">
+        <v>50</v>
+      </c>
+      <c r="G19" s="12">
         <v>0.5</v>
       </c>
-      <c r="H18" s="11">
-        <f>ROUND(((F18*(1+G18)) * $B14/$B15)/B18, 0)</f>
-        <v>9481481</v>
-      </c>
-      <c r="I18" s="11">
+      <c r="H19" s="11">
+        <f>ROUND(((F19*(1+G19)) * $B15/$B16)/B19, 0)</f>
+        <v>1706667</v>
+      </c>
+      <c r="I19" s="11">
         <v>0.81499999999999995</v>
       </c>
-      <c r="J18" s="13">
-        <f t="shared" ref="J18" si="1">LOG(H18*C18,2)</f>
-        <v>27.424608507342434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2" t="s">
+      <c r="J19" s="13">
+        <f t="shared" ref="J19" si="1">LOG(H19*C19,2)</f>
+        <v>28.416995678270762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>65536</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="6" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>14400</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="L21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="6"/>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>15</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" t="s">
-        <v>19</v>
-      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="6"/>
+      <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A24" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="14">
-        <v>3.1000000000000001E-5</v>
-      </c>
-      <c r="C24" s="11">
-        <f>ROUND(POWER(2,$C$16)*B24, 0)</f>
-        <v>33</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="E24" s="11">
-        <f>ROUND(POWER(2,$E22)*D24, 0)</f>
-        <v>655</v>
-      </c>
-      <c r="F24" s="11">
-        <v>13</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="H24" s="11">
-        <f>ROUND(((F24*(1+G24)) * $B20/$B21)/B24, 0)</f>
-        <v>3339928</v>
-      </c>
-      <c r="I24" s="11">
+      <c r="J24" s="9"/>
+      <c r="L24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A25" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="C25" s="11">
+        <f>ROUND(POWER(2,$C$10)*B25, 0)</f>
+        <v>105</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="E25" s="11">
+        <f>ROUND(POWER(2,$E23)*D25, 0)</f>
+        <v>983</v>
+      </c>
+      <c r="F25" s="11">
+        <v>50</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="11">
+        <f>ROUND(((F25*(1+G25)) * $B21/$B22)/B25, 0)</f>
+        <v>3413333</v>
+      </c>
+      <c r="I25" s="11">
         <v>0.81499999999999995</v>
       </c>
-      <c r="J24" s="13">
-        <f t="shared" ref="J24" si="2">LOG(H24*C24,2)</f>
-        <v>26.715779691033887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="26" spans="1:12">
-      <c r="A26" s="2" t="s">
+      <c r="J25" s="13">
+        <f t="shared" ref="J25" si="2">LOG(H25*C25,2)</f>
+        <v>28.416995255606221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="3">
         <v>65536</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="6" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>14400</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="6"/>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>20</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>15</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28" t="s">
-        <v>14</v>
-      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="6"/>
+      <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="L29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A30" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="C30" s="11">
-        <f>ROUND(POWER(2,$C$10)*B30, 0)</f>
-        <v>210</v>
-      </c>
-      <c r="D30" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="E30" s="11">
-        <f>ROUND(POWER(2,$E28)*D30, 0)</f>
-        <v>2949</v>
-      </c>
-      <c r="F30" s="11">
-        <v>50</v>
-      </c>
-      <c r="G30" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="H30" s="11">
-        <f>ROUND(((F30*(1+G30)) * $B26/$B27)/B30, 0)</f>
-        <v>1706667</v>
-      </c>
-      <c r="I30" s="11">
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A31" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="11">
+        <f>D31/1000</f>
+        <v>1.1999999999999999E-4</v>
+      </c>
+      <c r="C31" s="11">
+        <f>ROUND(POWER(2,$C$4)*B31, 0)</f>
+        <v>126</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="E31" s="11">
+        <f>ROUND(POWER(2,$E29)*D31, 0)</f>
+        <v>3932</v>
+      </c>
+      <c r="F31" s="11">
+        <v>25</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="H31" s="11">
+        <f>ROUND(((F31*(1+G31)) * $B27/$B28)/B31, 0)</f>
+        <v>1185185</v>
+      </c>
+      <c r="I31" s="11">
         <v>0.81499999999999995</v>
       </c>
-      <c r="J30" s="13">
-        <f t="shared" ref="J30" si="3">LOG(H30*C30,2)</f>
-        <v>28.416995678270762</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="32" spans="1:12">
-      <c r="A32" s="2" t="s">
+      <c r="J31" s="13">
+        <f>LOG(H31*C31,2)</f>
+        <v>27.153960765239503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B33" s="3">
         <v>65536</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="6" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>14400</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="6"/>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34">
-        <v>20</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>15</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" t="s">
-        <v>16</v>
-      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>15</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="6"/>
+      <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>7</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="L35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A36" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="11">
-        <v>1E-4</v>
-      </c>
-      <c r="C36" s="11">
-        <f>ROUND(POWER(2,$C$10)*B36, 0)</f>
-        <v>105</v>
-      </c>
-      <c r="D36" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="E36" s="11">
-        <f>ROUND(POWER(2,$E34)*D36, 0)</f>
-        <v>983</v>
-      </c>
-      <c r="F36" s="11">
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A37" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="11">
+        <f>D37/1000</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C37" s="11">
+        <f>ROUND(POWER(2,$C$10)*B37, 0)</f>
+        <v>315</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E37" s="11">
+        <f>ROUND(POWER(2,$E35)*D37, 0)</f>
+        <v>9830</v>
+      </c>
+      <c r="F37" s="11">
         <v>50</v>
       </c>
-      <c r="G36" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="H36" s="11">
-        <f>ROUND(((F36*(1+G36)) * $B32/$B33)/B36, 0)</f>
-        <v>3413333</v>
-      </c>
-      <c r="I36" s="11">
+      <c r="G37" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="H37" s="11">
+        <f>ROUND(((F37*(1+G37)) * $B33/$B34)/B37, 0)</f>
+        <v>948148</v>
+      </c>
+      <c r="I37" s="11">
         <v>0.81499999999999995</v>
       </c>
-      <c r="J36" s="13">
-        <f t="shared" ref="J36" si="4">LOG(H36*C36,2)</f>
-        <v>28.416995255606221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="38" spans="1:12">
-      <c r="A38" s="2" t="s">
+      <c r="J37" s="13">
+        <f t="shared" ref="J37" si="3">LOG(H37*C37,2)</f>
+        <v>28.153960765239507</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="39" spans="1:12">
+      <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B39" s="3">
         <v>65536</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="6" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>14400</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="6"/>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40">
-        <v>20</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40">
-        <v>15</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="6"/>
       <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>15</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="6"/>
+      <c r="B42" t="s">
         <v>4</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A42" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="11">
-        <f>D42/1000</f>
-        <v>1.1999999999999999E-4</v>
-      </c>
-      <c r="C42" s="11">
-        <f>ROUND(POWER(2,$C$4)*B42, 0)</f>
-        <v>126</v>
-      </c>
-      <c r="D42" s="11">
-        <v>0.12</v>
-      </c>
-      <c r="E42" s="11">
-        <f>ROUND(POWER(2,$E40)*D42, 0)</f>
-        <v>3932</v>
-      </c>
-      <c r="F42" s="11">
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A43" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="11">
+        <f>D43/2000</f>
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="C43" s="11">
+        <f>ROUND(POWER(2,$C$10)*B43, 0)</f>
+        <v>157</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E43" s="11">
+        <f>ROUND(POWER(2,$E41)*D43, 0)</f>
+        <v>9830</v>
+      </c>
+      <c r="F43" s="11">
         <v>25</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G43" s="12">
         <v>0.25</v>
       </c>
-      <c r="H42" s="11">
-        <f>ROUND(((F42*(1+G42)) * $B38/$B39)/B42, 0)</f>
-        <v>1185185</v>
-      </c>
-      <c r="I42" s="11">
+      <c r="H43" s="11">
+        <f>ROUND(((F43*(1+G43)) * $B39/$B40)/B43, 0)</f>
+        <v>948148</v>
+      </c>
+      <c r="I43" s="11">
         <v>0.81499999999999995</v>
       </c>
-      <c r="J42" s="13">
-        <f>LOG(H42*C42,2)</f>
-        <v>27.153960765239503</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="44" spans="1:12">
-      <c r="A44" s="2" t="s">
+      <c r="J43" s="13">
+        <f t="shared" ref="J43" si="4">LOG(H43*C43,2)</f>
+        <v>27.149373495743855</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:12">
+      <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B45" s="3">
         <v>65536</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="6" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>14400</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="6"/>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46">
-        <v>20</v>
-      </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46">
-        <v>15</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="6"/>
       <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>15</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="6"/>
+      <c r="B48" t="s">
         <v>4</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>7</v>
       </c>
-      <c r="J47" s="9"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A48" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="11">
-        <f>D48/1000</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="C48" s="11">
-        <f>ROUND(POWER(2,$C$10)*B48, 0)</f>
-        <v>315</v>
-      </c>
-      <c r="D48" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="E48" s="11">
-        <f>ROUND(POWER(2,$E46)*D48, 0)</f>
-        <v>9830</v>
-      </c>
-      <c r="F48" s="11">
-        <v>50</v>
-      </c>
-      <c r="G48" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="H48" s="11">
-        <f>ROUND(((F48*(1+G48)) * $B44/$B45)/B48, 0)</f>
-        <v>948148</v>
-      </c>
-      <c r="I48" s="11">
+      <c r="J48" s="9"/>
+      <c r="L48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A49" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="14">
+        <f>D49/1000</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C49" s="11">
+        <f>ROUND(POWER(2,$C47)*B49, 0)</f>
+        <v>52</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E49" s="11">
+        <f>ROUND(POWER(2,$E47)*D49, 0)</f>
+        <v>1638</v>
+      </c>
+      <c r="F49" s="11">
+        <v>5</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
+        <f>ROUND(((F49*(1+G49)) * $B45/$B46)/B49, 0)</f>
+        <v>455111</v>
+      </c>
+      <c r="I49" s="11">
         <v>0.81499999999999995</v>
       </c>
-      <c r="J48" s="13">
-        <f t="shared" ref="J48" si="5">LOG(H48*C48,2)</f>
-        <v>28.153960765239507</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="50" spans="1:12">
-      <c r="A50" s="2" t="s">
+      <c r="J49" s="13">
+        <f t="shared" ref="J49" si="5">LOG(H49*C49,2)</f>
+        <v>24.496298649140353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B51" s="3">
         <v>65536</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="6" t="s">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>14400</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="6"/>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52">
-        <v>20</v>
-      </c>
-      <c r="D52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52">
-        <v>15</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L52" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="6"/>
       <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>15</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="6"/>
+      <c r="B54" t="s">
         <v>4</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>7</v>
       </c>
-      <c r="J53" s="9"/>
-    </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A54" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="11">
-        <f>D54/2000</f>
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="C54" s="11">
-        <f>ROUND(POWER(2,$C$10)*B54, 0)</f>
-        <v>157</v>
-      </c>
-      <c r="D54" s="11">
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A55" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="C55" s="11">
+        <f>ROUND(POWER(2,C53)*B55, 0)</f>
+        <v>1049</v>
+      </c>
+      <c r="D55" s="11">
         <v>0.3</v>
       </c>
-      <c r="E54" s="11">
-        <f>ROUND(POWER(2,$E52)*D54, 0)</f>
+      <c r="E55" s="11">
+        <f>ROUND(POWER(2,$E53)*D55, 0)</f>
         <v>9830</v>
       </c>
-      <c r="F54" s="11">
-        <v>25</v>
-      </c>
-      <c r="G54" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="H54" s="11">
-        <f>ROUND(((F54*(1+G54)) * $B50/$B51)/B54, 0)</f>
-        <v>948148</v>
-      </c>
-      <c r="I54" s="11">
+      <c r="F55" s="11">
+        <v>15</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11">
+        <f>ROUND(((F55*(1+G55)) * $B51/$B52)/B55, 0)</f>
+        <v>68267</v>
+      </c>
+      <c r="I55" s="11">
         <v>0.81499999999999995</v>
       </c>
-      <c r="J54" s="13">
-        <f t="shared" ref="J54" si="6">LOG(H54*C54,2)</f>
-        <v>27.149373495743855</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="56" spans="1:12">
-      <c r="A56" s="2" t="s">
+      <c r="J55" s="13">
+        <f t="shared" ref="J55" si="6">LOG(H55*C55,2)</f>
+        <v>26.09369969602302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="57" spans="1:10">
+      <c r="A57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B57" s="3">
         <v>65536</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="6" t="s">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>14400</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="6"/>
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58">
-        <v>20</v>
-      </c>
-      <c r="D58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58">
-        <v>15</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="6"/>
       <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>15</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="6"/>
+      <c r="B60" t="s">
         <v>4</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>7</v>
       </c>
-      <c r="J59" s="9"/>
-      <c r="L59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A60" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="14">
-        <v>1E-4</v>
-      </c>
-      <c r="C60" s="11">
-        <f>ROUND(POWER(2,$C58)*B60, 0)</f>
-        <v>105</v>
-      </c>
-      <c r="D60" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E60" s="11">
-        <f>ROUND(POWER(2,$E58)*D60, 0)</f>
-        <v>6554</v>
-      </c>
-      <c r="F60" s="11">
-        <v>13</v>
-      </c>
-      <c r="G60" s="12">
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="14">
+        <f>D61/500</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C61" s="11">
+        <f>ROUND(POWER(2,C59)*B61, 0)</f>
+        <v>839</v>
+      </c>
+      <c r="D61" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="E61" s="11">
+        <f>ROUND(POWER(2,$E59)*D61, 0)</f>
+        <v>13107</v>
+      </c>
+      <c r="F61" s="11">
+        <v>25</v>
+      </c>
+      <c r="G61" s="12">
         <v>0.25</v>
       </c>
-      <c r="H60" s="11">
-        <f>ROUND(((F60*(1+G60)) * $B56/$B57)/B60, 0)</f>
-        <v>739556</v>
-      </c>
-      <c r="I60" s="11">
+      <c r="H61" s="11">
+        <f>ROUND(((F61*(1+G61)) * $B57/$B58)/B61, 0)</f>
+        <v>177778</v>
+      </c>
+      <c r="I61" s="11">
         <v>0.81499999999999995</v>
       </c>
-      <c r="J60" s="13">
-        <f t="shared" ref="J60" si="7">LOG(H60*C60,2)</f>
-        <v>26.210545386030962</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="62" spans="1:12">
-      <c r="A62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="3">
-        <v>65536</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63">
-        <v>14400</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="8"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="6"/>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64">
-        <v>20</v>
-      </c>
-      <c r="D64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64">
-        <v>15</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="6"/>
-      <c r="B65" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="J65" s="9"/>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A66" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="C66" s="11">
-        <f>ROUND(POWER(2,$C$16)*B66, 0)</f>
-        <v>1049</v>
-      </c>
-      <c r="D66" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="E66" s="11">
-        <f>ROUND(POWER(2,$E64)*D66, 0)</f>
-        <v>9830</v>
-      </c>
-      <c r="F66" s="11">
-        <v>15</v>
-      </c>
-      <c r="G66" s="12">
-        <v>0</v>
-      </c>
-      <c r="H66" s="11">
-        <f>ROUND(((F66*(1+G66)) * $B62/$B63)/B66, 0)</f>
-        <v>68267</v>
-      </c>
-      <c r="I66" s="11">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="J66" s="13">
-        <f t="shared" ref="J66" si="8">LOG(H66*C66,2)</f>
-        <v>26.09369969602302</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="68" spans="1:12">
-      <c r="A68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="3">
-        <v>65536</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69">
-        <v>14400</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="8"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="6"/>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70">
-        <v>20</v>
-      </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70">
-        <v>15</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="6"/>
-      <c r="B71" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
-      <c r="J71" s="9"/>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A72" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" s="14">
-        <f>D72/500</f>
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="C72" s="11">
-        <f>ROUND(POWER(2,$C$16)*B72, 0)</f>
-        <v>839</v>
-      </c>
-      <c r="D72" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="E72" s="11">
-        <f>ROUND(POWER(2,$E70)*D72, 0)</f>
-        <v>13107</v>
-      </c>
-      <c r="F72" s="11">
-        <v>25</v>
-      </c>
-      <c r="G72" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="H72" s="11">
-        <f>ROUND(((F72*(1+G72)) * $B68/$B69)/B72, 0)</f>
-        <v>177778</v>
-      </c>
-      <c r="I72" s="11">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="J72" s="13">
-        <f t="shared" ref="J72" si="9">LOG(H72*C72,2)</f>
+      <c r="J61" s="13">
+        <f t="shared" ref="J61" si="7">LOG(H61*C61,2)</f>
         <v>27.152244276801998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="74" spans="1:12">
-      <c r="A74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="3">
-        <v>65536</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75">
-        <v>7200</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="8"/>
-      <c r="L75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="6"/>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76">
-        <v>20</v>
-      </c>
-      <c r="D76" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76">
-        <v>15</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="6"/>
-      <c r="B77" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="J77" s="9"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A78" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="14">
-        <v>3.1000000000000001E-5</v>
-      </c>
-      <c r="C78" s="11">
-        <f>ROUND(POWER(2,$C$16)*B78, 0)</f>
-        <v>33</v>
-      </c>
-      <c r="D78" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="E78" s="11">
-        <f>ROUND(POWER(2,$E76)*D78, 0)</f>
-        <v>655</v>
-      </c>
-      <c r="F78" s="11">
-        <v>13</v>
-      </c>
-      <c r="G78" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="H78" s="11">
-        <f>ROUND(((F78*(1+G78)) * $B74/$B75)/B78, 0)</f>
-        <v>6679857</v>
-      </c>
-      <c r="I78" s="11">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="J78" s="13">
-        <f t="shared" ref="J78" si="10">LOG(H78*C78,2)</f>
-        <v>27.715779907010837</v>
       </c>
     </row>
   </sheetData>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -1422,21 +1422,21 @@
         <v>1638</v>
       </c>
       <c r="F49" s="11">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G49" s="12">
         <v>0</v>
       </c>
       <c r="H49" s="11">
         <f>ROUND(((F49*(1+G49)) * $B45/$B46)/B49, 0)</f>
-        <v>455111</v>
+        <v>1365333</v>
       </c>
       <c r="I49" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J49" s="13">
         <f t="shared" ref="J49" si="5">LOG(H49*C49,2)</f>
-        <v>24.496298649140353</v>
+        <v>26.081261149861511</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1"/>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1422,21 +1422,21 @@
         <v>1638</v>
       </c>
       <c r="F49" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G49" s="12">
         <v>0</v>
       </c>
       <c r="H49" s="11">
         <f>ROUND(((F49*(1+G49)) * $B45/$B46)/B49, 0)</f>
-        <v>1365333</v>
+        <v>2275556</v>
       </c>
       <c r="I49" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="J49" s="13">
         <f t="shared" ref="J49" si="5">LOG(H49*C49,2)</f>
-        <v>26.081261149861511</v>
+        <v>26.818227378024577</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1"/>

--- a/LoopIntegralReference.xlsx
+++ b/LoopIntegralReference.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7815" yWindow="45" windowWidth="20940" windowHeight="16995"/>
+    <workbookView xWindow="7815" yWindow="45" windowWidth="20940" windowHeight="16995" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Modified Costas Loop" sheetId="4" r:id="rId1"/>
@@ -602,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
@@ -3048,7 +3048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -3089,14 +3089,14 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4">
         <f>B2/B3</f>
-        <v>4.5511111111111111</v>
+        <v>9.1022222222222222</v>
       </c>
       <c r="E2" s="4">
         <v>1700</v>
       </c>
       <c r="F2" s="4">
         <f>D2*E2</f>
-        <v>7736.8888888888887</v>
+        <v>15473.777777777777</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -3108,7 +3108,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>14400</v>
+        <v>7200</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -3174,14 +3174,14 @@
       </c>
       <c r="H6" s="11">
         <f>ROUND(((F6*(1+G6)) * $B2/$B3)/B6, 0)</f>
-        <v>5688889</v>
+        <v>11377778</v>
       </c>
       <c r="I6" s="11">
         <v>0.9</v>
       </c>
       <c r="J6" s="13">
         <f>LOG(H6*C6,2)</f>
-        <v>28.140155219313232</v>
+        <v>29.140155219313229</v>
       </c>
     </row>
   </sheetData>
